--- a/attendance-files/HRM/HRM (B) Attendance Sheet.xlsx
+++ b/attendance-files/HRM/HRM (B) Attendance Sheet.xlsx
@@ -523,7 +523,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dddd\,\ d\ mmmm\,\ yyyy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -539,6 +539,10 @@
     <font/>
     <font>
       <sz val="10.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -568,6 +572,11 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -595,7 +604,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="24">
     <border/>
     <border>
       <left style="thin">
@@ -628,14 +637,6 @@
       </bottom>
     </border>
     <border>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
@@ -725,9 +726,6 @@
         <color rgb="FF000000"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
     </border>
     <border>
       <left style="medium">
@@ -806,17 +804,6 @@
       </bottom>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -884,7 +871,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -896,106 +883,114 @@
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="7" fillId="2" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="2" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="8" fillId="2" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="9" fillId="2" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="2" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="6" fillId="2" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
+    <xf borderId="10" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
+    <xf borderId="11" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="10" fillId="2" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="12" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="13" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="2" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="14" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="15" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="12" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf borderId="16" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="14" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="15" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="17" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="18" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="19" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="18" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="20" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="21" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="19" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="22" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="20" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="20" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="21" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="22" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="18" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="21" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="19" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="22" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="23" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="23" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="24" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="25" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
     <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="22" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="23" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="24" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="19" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="25" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1233,7 +1228,9 @@
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
-      <c r="F1" s="5"/>
+      <c r="F1" s="5">
+        <v>5.0</v>
+      </c>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
@@ -1611,10 +1608,10 @@
         <v>9</v>
       </c>
       <c r="E7" s="26">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F7" s="27">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="G7" s="28"/>
       <c r="H7" s="29"/>
@@ -1653,11 +1650,11 @@
         <v>9</v>
       </c>
       <c r="E8" s="33">
-        <f t="shared" ref="E8:E11" si="2">IF(D8&gt;0,COUNTIF(G8:Z8,"A"),"")</f>
+        <f t="shared" ref="E8:E10" si="2">IF(D8&gt;0,COUNTIF(G8:Z8,"A"),"")</f>
         <v>0</v>
       </c>
       <c r="F8" s="34">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="G8" s="35"/>
       <c r="H8" s="36"/>
@@ -1700,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="34">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="G9" s="35"/>
       <c r="H9" s="36"/>
@@ -1743,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="34">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="G10" s="35"/>
       <c r="H10" s="36"/>
@@ -1781,12 +1778,11 @@
       <c r="D11" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="E11" s="26">
+        <v>1.0</v>
       </c>
       <c r="F11" s="34">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="G11" s="35"/>
       <c r="H11" s="36"/>
@@ -1828,7 +1824,7 @@
         <v>1.0</v>
       </c>
       <c r="F12" s="34">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="G12" s="35"/>
       <c r="H12" s="36"/>
@@ -1870,7 +1866,7 @@
         <v>1.0</v>
       </c>
       <c r="F13" s="34">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="G13" s="35"/>
       <c r="H13" s="36"/>
@@ -1909,11 +1905,11 @@
         <v>9</v>
       </c>
       <c r="E14" s="33">
-        <f t="shared" ref="E14:E20" si="3">IF(D14&gt;0,COUNTIF(G14:Z14,"A"),"")</f>
+        <f>IF(D14&gt;0,COUNTIF(G14:Z14,"A"),"")</f>
         <v>0</v>
       </c>
       <c r="F14" s="34">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="G14" s="35"/>
       <c r="H14" s="36"/>
@@ -1951,12 +1947,11 @@
       <c r="D15" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="33">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="E15" s="26">
+        <v>2.0</v>
       </c>
       <c r="F15" s="34">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="G15" s="35"/>
       <c r="H15" s="36"/>
@@ -1995,11 +1990,11 @@
         <v>9</v>
       </c>
       <c r="E16" s="33">
-        <f t="shared" si="3"/>
+        <f>IF(D16&gt;0,COUNTIF(G16:Z16,"A"),"")</f>
         <v>0</v>
       </c>
       <c r="F16" s="34">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="G16" s="35"/>
       <c r="H16" s="36"/>
@@ -2037,12 +2032,11 @@
       <c r="D17" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="33">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="E17" s="26">
+        <v>3.0</v>
       </c>
       <c r="F17" s="34">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G17" s="35"/>
       <c r="H17" s="36"/>
@@ -2081,11 +2075,11 @@
         <v>9</v>
       </c>
       <c r="E18" s="33">
-        <f t="shared" si="3"/>
+        <f>IF(D18&gt;0,COUNTIF(G18:Z18,"A"),"")</f>
         <v>0</v>
       </c>
       <c r="F18" s="34">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="G18" s="35"/>
       <c r="H18" s="36"/>
@@ -2123,12 +2117,11 @@
       <c r="D19" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="33">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="E19" s="26">
+        <v>2.0</v>
       </c>
       <c r="F19" s="34">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="G19" s="35"/>
       <c r="H19" s="36"/>
@@ -2166,12 +2159,11 @@
       <c r="D20" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="33">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="E20" s="26">
+        <v>2.0</v>
       </c>
       <c r="F20" s="34">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="G20" s="35"/>
       <c r="H20" s="36"/>
@@ -2210,10 +2202,10 @@
         <v>9</v>
       </c>
       <c r="E21" s="26">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="F21" s="34">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="G21" s="35"/>
       <c r="H21" s="36"/>
@@ -2251,12 +2243,11 @@
       <c r="D22" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="33">
-        <f t="shared" ref="E22:E23" si="4">IF(D22&gt;0,COUNTIF(G22:Z22,"A"),"")</f>
-        <v>0</v>
+      <c r="E22" s="26">
+        <v>1.0</v>
       </c>
       <c r="F22" s="34">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="G22" s="35"/>
       <c r="H22" s="36"/>
@@ -2294,12 +2285,11 @@
       <c r="D23" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="33">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="E23" s="26">
+        <v>2.0</v>
       </c>
       <c r="F23" s="34">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="G23" s="35"/>
       <c r="H23" s="36"/>
@@ -2341,7 +2331,7 @@
         <v>1.0</v>
       </c>
       <c r="F24" s="34">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="G24" s="35"/>
       <c r="H24" s="36"/>
@@ -2379,12 +2369,11 @@
       <c r="D25" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="33">
-        <f t="shared" ref="E25:E31" si="5">IF(D25&gt;0,COUNTIF(G25:Z25,"A"),"")</f>
-        <v>0</v>
+      <c r="E25" s="26">
+        <v>2.0</v>
       </c>
       <c r="F25" s="34">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="G25" s="35"/>
       <c r="H25" s="36"/>
@@ -2422,12 +2411,11 @@
       <c r="D26" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="33">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="E26" s="26">
+        <v>1.0</v>
       </c>
       <c r="F26" s="34">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="G26" s="35"/>
       <c r="H26" s="36"/>
@@ -2466,11 +2454,11 @@
         <v>9</v>
       </c>
       <c r="E27" s="33">
-        <f t="shared" si="5"/>
+        <f>IF(D27&gt;0,COUNTIF(G27:Z27,"A"),"")</f>
         <v>0</v>
       </c>
       <c r="F27" s="34">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="G27" s="35"/>
       <c r="H27" s="36"/>
@@ -2508,12 +2496,11 @@
       <c r="D28" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="33">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="E28" s="26">
+        <v>3.0</v>
       </c>
       <c r="F28" s="34">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G28" s="35"/>
       <c r="H28" s="36"/>
@@ -2552,11 +2539,11 @@
         <v>9</v>
       </c>
       <c r="E29" s="33">
-        <f t="shared" si="5"/>
+        <f>IF(D29&gt;0,COUNTIF(G29:Z29,"A"),"")</f>
         <v>0</v>
       </c>
       <c r="F29" s="34">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="G29" s="35"/>
       <c r="H29" s="36"/>
@@ -2594,12 +2581,11 @@
       <c r="D30" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="33">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="E30" s="26">
+        <v>1.0</v>
       </c>
       <c r="F30" s="34">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="G30" s="35"/>
       <c r="H30" s="36"/>
@@ -2637,12 +2623,11 @@
       <c r="D31" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="33">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="E31" s="26">
+        <v>3.0</v>
       </c>
       <c r="F31" s="34">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="G31" s="35"/>
       <c r="H31" s="36"/>
@@ -2684,7 +2669,7 @@
         <v>1.0</v>
       </c>
       <c r="F32" s="34">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="G32" s="35"/>
       <c r="H32" s="36"/>
@@ -2722,12 +2707,11 @@
       <c r="D33" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="33">
-        <f t="shared" ref="E33:E34" si="6">IF(D33&gt;0,COUNTIF(G33:Z33,"A"),"")</f>
-        <v>0</v>
+      <c r="E33" s="26">
+        <v>1.0</v>
       </c>
       <c r="F33" s="34">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="G33" s="35"/>
       <c r="H33" s="36"/>
@@ -2766,11 +2750,11 @@
         <v>9</v>
       </c>
       <c r="E34" s="33">
-        <f t="shared" si="6"/>
+        <f>IF(D34&gt;0,COUNTIF(G34:Z34,"A"),"")</f>
         <v>0</v>
       </c>
       <c r="F34" s="34">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="G34" s="35"/>
       <c r="H34" s="36"/>
@@ -2809,10 +2793,10 @@
         <v>9</v>
       </c>
       <c r="E35" s="26">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="F35" s="34">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="G35" s="35"/>
       <c r="H35" s="36"/>
@@ -2850,12 +2834,11 @@
       <c r="D36" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="33">
-        <f t="shared" ref="E36:E41" si="7">IF(D36&gt;0,COUNTIF(G36:Z36,"A"),"")</f>
-        <v>0</v>
+      <c r="E36" s="26">
+        <v>2.0</v>
       </c>
       <c r="F36" s="34">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="G36" s="35"/>
       <c r="H36" s="36"/>
@@ -2893,12 +2876,11 @@
       <c r="D37" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="33">
-        <f t="shared" si="7"/>
-        <v>0</v>
+      <c r="E37" s="26">
+        <v>1.0</v>
       </c>
       <c r="F37" s="34">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="G37" s="35"/>
       <c r="H37" s="36"/>
@@ -2937,11 +2919,11 @@
         <v>9</v>
       </c>
       <c r="E38" s="33">
-        <f t="shared" si="7"/>
+        <f>IF(D38&gt;0,COUNTIF(G38:Z38,"A"),"")</f>
         <v>0</v>
       </c>
       <c r="F38" s="34">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="G38" s="35"/>
       <c r="H38" s="36"/>
@@ -2979,12 +2961,11 @@
       <c r="D39" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E39" s="33">
-        <f t="shared" si="7"/>
-        <v>0</v>
+      <c r="E39" s="26">
+        <v>2.0</v>
       </c>
       <c r="F39" s="34">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="G39" s="35"/>
       <c r="H39" s="36"/>
@@ -3023,11 +3004,11 @@
         <v>9</v>
       </c>
       <c r="E40" s="33">
-        <f t="shared" si="7"/>
+        <f>IF(D40&gt;0,COUNTIF(G40:Z40,"A"),"")</f>
         <v>0</v>
       </c>
       <c r="F40" s="34">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="G40" s="35"/>
       <c r="H40" s="36"/>
@@ -3065,12 +3046,11 @@
       <c r="D41" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="33">
-        <f t="shared" si="7"/>
-        <v>0</v>
+      <c r="E41" s="26">
+        <v>1.0</v>
       </c>
       <c r="F41" s="34">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="G41" s="35"/>
       <c r="H41" s="36"/>
@@ -3108,10 +3088,10 @@
         <v>9</v>
       </c>
       <c r="E42" s="26">
-        <v>0.0</v>
-      </c>
-      <c r="F42" s="34">
         <v>2.0</v>
+      </c>
+      <c r="F42" s="41">
+        <v>5.0</v>
       </c>
       <c r="G42" s="35"/>
       <c r="H42" s="36"/>
@@ -3148,12 +3128,11 @@
       <c r="D43" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E43" s="33">
-        <f t="shared" ref="E43:E49" si="8">IF(D43&gt;0,COUNTIF(G43:Z43,"A"),"")</f>
-        <v>0</v>
-      </c>
-      <c r="F43" s="34">
-        <v>2.0</v>
+      <c r="E43" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="F43" s="41">
+        <v>7.0</v>
       </c>
       <c r="G43" s="35"/>
       <c r="H43" s="36"/>
@@ -3179,7 +3158,7 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="30">
-        <f t="shared" ref="A44:A96" si="9">IF(B44&gt;0,A43+1,"")</f>
+        <f t="shared" ref="A44:A96" si="3">IF(B44&gt;0,A43+1,"")</f>
         <v>38</v>
       </c>
       <c r="B44" s="31" t="s">
@@ -3191,12 +3170,11 @@
       <c r="D44" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E44" s="33">
-        <f t="shared" si="8"/>
-        <v>0</v>
+      <c r="E44" s="26">
+        <v>1.0</v>
       </c>
       <c r="F44" s="34">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="G44" s="35"/>
       <c r="H44" s="36"/>
@@ -3222,7 +3200,7 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="B45" s="31" t="s">
@@ -3234,12 +3212,11 @@
       <c r="D45" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E45" s="33">
-        <f t="shared" si="8"/>
-        <v>0</v>
+      <c r="E45" s="26">
+        <v>1.0</v>
       </c>
       <c r="F45" s="34">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="G45" s="35"/>
       <c r="H45" s="36"/>
@@ -3265,7 +3242,7 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="B46" s="31" t="s">
@@ -3277,12 +3254,11 @@
       <c r="D46" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E46" s="33">
-        <f t="shared" si="8"/>
-        <v>0</v>
+      <c r="E46" s="26">
+        <v>2.0</v>
       </c>
       <c r="F46" s="34">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="G46" s="35"/>
       <c r="H46" s="36"/>
@@ -3308,7 +3284,7 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="B47" s="31" t="s">
@@ -3321,11 +3297,11 @@
         <v>9</v>
       </c>
       <c r="E47" s="33">
-        <f t="shared" si="8"/>
+        <f>IF(D47&gt;0,COUNTIF(G47:Z47,"A"),"")</f>
         <v>0</v>
       </c>
       <c r="F47" s="34">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="G47" s="35"/>
       <c r="H47" s="36"/>
@@ -3351,7 +3327,7 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="B48" s="31" t="s">
@@ -3363,12 +3339,11 @@
       <c r="D48" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E48" s="33">
-        <f t="shared" si="8"/>
-        <v>0</v>
+      <c r="E48" s="26">
+        <v>1.0</v>
       </c>
       <c r="F48" s="34">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="G48" s="35"/>
       <c r="H48" s="36"/>
@@ -3394,7 +3369,7 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="B49" s="31" t="s">
@@ -3406,12 +3381,11 @@
       <c r="D49" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E49" s="33">
-        <f t="shared" si="8"/>
-        <v>0</v>
+      <c r="E49" s="26">
+        <v>2.0</v>
       </c>
       <c r="F49" s="34">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="G49" s="35"/>
       <c r="H49" s="36"/>
@@ -3437,7 +3411,7 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="B50" s="31" t="s">
@@ -3453,7 +3427,7 @@
         <v>1.0</v>
       </c>
       <c r="F50" s="34">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="G50" s="35"/>
       <c r="H50" s="36"/>
@@ -3479,7 +3453,7 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="B51" s="31" t="s">
@@ -3492,11 +3466,11 @@
         <v>9</v>
       </c>
       <c r="E51" s="33">
-        <f t="shared" ref="E51:E54" si="10">IF(D51&gt;0,COUNTIF(G51:Z51,"A"),"")</f>
+        <f t="shared" ref="E51:E52" si="4">IF(D51&gt;0,COUNTIF(G51:Z51,"A"),"")</f>
         <v>0</v>
       </c>
       <c r="F51" s="34">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="G51" s="35"/>
       <c r="H51" s="36"/>
@@ -3522,7 +3496,7 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>46</v>
       </c>
       <c r="B52" s="31" t="s">
@@ -3535,11 +3509,11 @@
         <v>9</v>
       </c>
       <c r="E52" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F52" s="34">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="G52" s="35"/>
       <c r="H52" s="36"/>
@@ -3565,7 +3539,7 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>47</v>
       </c>
       <c r="B53" s="31" t="s">
@@ -3577,12 +3551,11 @@
       <c r="D53" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E53" s="33">
-        <f t="shared" si="10"/>
-        <v>0</v>
+      <c r="E53" s="26">
+        <v>2.0</v>
       </c>
       <c r="F53" s="34">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="G53" s="35"/>
       <c r="H53" s="36"/>
@@ -3608,7 +3581,7 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="B54" s="31" t="s">
@@ -3620,12 +3593,11 @@
       <c r="D54" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E54" s="33">
-        <f t="shared" si="10"/>
-        <v>0</v>
+      <c r="E54" s="26">
+        <v>2.0</v>
       </c>
       <c r="F54" s="34">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="G54" s="35"/>
       <c r="H54" s="36"/>
@@ -3651,7 +3623,7 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>49</v>
       </c>
       <c r="B55" s="31" t="s">
@@ -3664,10 +3636,10 @@
         <v>9</v>
       </c>
       <c r="E55" s="26">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F55" s="34">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="G55" s="35"/>
       <c r="H55" s="36"/>
@@ -3693,7 +3665,7 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="B56" s="31" t="s">
@@ -3705,12 +3677,11 @@
       <c r="D56" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E56" s="33">
-        <f>IF(D56&gt;0,COUNTIF(G56:Z56,"A"),"")</f>
-        <v>0</v>
+      <c r="E56" s="26">
+        <v>2.0</v>
       </c>
       <c r="F56" s="34">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="G56" s="35"/>
       <c r="H56" s="36"/>
@@ -3736,7 +3707,7 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
       <c r="B57" s="31" t="s">
@@ -3749,10 +3720,10 @@
         <v>9</v>
       </c>
       <c r="E57" s="26">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F57" s="34">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="G57" s="35"/>
       <c r="H57" s="36"/>
@@ -3778,7 +3749,7 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>52</v>
       </c>
       <c r="B58" s="31" t="s">
@@ -3790,12 +3761,11 @@
       <c r="D58" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E58" s="33">
-        <f t="shared" ref="E58:E59" si="11">IF(D58&gt;0,COUNTIF(G58:Z58,"A"),"")</f>
-        <v>0</v>
+      <c r="E58" s="26">
+        <v>1.0</v>
       </c>
       <c r="F58" s="34">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="G58" s="35"/>
       <c r="H58" s="36"/>
@@ -3821,7 +3791,7 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>53</v>
       </c>
       <c r="B59" s="31" t="s">
@@ -3834,11 +3804,11 @@
         <v>9</v>
       </c>
       <c r="E59" s="33">
-        <f t="shared" si="11"/>
+        <f>IF(D59&gt;0,COUNTIF(G59:Z59,"A"),"")</f>
         <v>0</v>
       </c>
       <c r="F59" s="34">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="G59" s="35"/>
       <c r="H59" s="36"/>
@@ -3864,7 +3834,7 @@
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
       <c r="B60" s="31" t="s">
@@ -3880,7 +3850,7 @@
         <v>1.0</v>
       </c>
       <c r="F60" s="34">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="G60" s="35"/>
       <c r="H60" s="36"/>
@@ -3906,7 +3876,7 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
       <c r="B61" s="31" t="s">
@@ -3922,7 +3892,7 @@
         <v>1.0</v>
       </c>
       <c r="F61" s="34">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="G61" s="35"/>
       <c r="H61" s="36"/>
@@ -3948,7 +3918,7 @@
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
       <c r="B62" s="31" t="s">
@@ -3961,11 +3931,11 @@
         <v>9</v>
       </c>
       <c r="E62" s="33">
-        <f t="shared" ref="E62:E67" si="12">IF(D62&gt;0,COUNTIF(G62:Z62,"A"),"")</f>
+        <f>IF(D62&gt;0,COUNTIF(G62:Z62,"A"),"")</f>
         <v>0</v>
       </c>
       <c r="F62" s="34">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="G62" s="35"/>
       <c r="H62" s="36"/>
@@ -3991,7 +3961,7 @@
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
       <c r="B63" s="31" t="s">
@@ -4003,12 +3973,11 @@
       <c r="D63" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E63" s="33">
-        <f t="shared" si="12"/>
-        <v>0</v>
+      <c r="E63" s="26">
+        <v>1.0</v>
       </c>
       <c r="F63" s="34">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="G63" s="35"/>
       <c r="H63" s="36"/>
@@ -4034,7 +4003,7 @@
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
       <c r="B64" s="31" t="s">
@@ -4046,12 +4015,11 @@
       <c r="D64" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E64" s="33">
-        <f t="shared" si="12"/>
-        <v>0</v>
+      <c r="E64" s="26">
+        <v>1.0</v>
       </c>
       <c r="F64" s="34">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="G64" s="35"/>
       <c r="H64" s="36"/>
@@ -4077,7 +4045,7 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>59</v>
       </c>
       <c r="B65" s="31" t="s">
@@ -4090,11 +4058,11 @@
         <v>9</v>
       </c>
       <c r="E65" s="33">
-        <f t="shared" si="12"/>
+        <f>IF(D65&gt;0,COUNTIF(G65:Z65,"A"),"")</f>
         <v>0</v>
       </c>
       <c r="F65" s="34">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="G65" s="35"/>
       <c r="H65" s="36"/>
@@ -4120,7 +4088,7 @@
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="B66" s="31" t="s">
@@ -4132,12 +4100,11 @@
       <c r="D66" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E66" s="33">
-        <f t="shared" si="12"/>
-        <v>0</v>
+      <c r="E66" s="26">
+        <v>2.0</v>
       </c>
       <c r="F66" s="34">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="G66" s="35"/>
       <c r="H66" s="36"/>
@@ -4163,7 +4130,7 @@
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>61</v>
       </c>
       <c r="B67" s="31" t="s">
@@ -4175,12 +4142,11 @@
       <c r="D67" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E67" s="33">
-        <f t="shared" si="12"/>
-        <v>0</v>
+      <c r="E67" s="26">
+        <v>1.0</v>
       </c>
       <c r="F67" s="34">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="G67" s="35"/>
       <c r="H67" s="36"/>
@@ -4206,7 +4172,7 @@
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>62</v>
       </c>
       <c r="B68" s="31" t="s">
@@ -4222,7 +4188,7 @@
         <v>1.0</v>
       </c>
       <c r="F68" s="34">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="G68" s="35"/>
       <c r="H68" s="36"/>
@@ -4248,7 +4214,7 @@
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>63</v>
       </c>
       <c r="B69" s="31" t="s">
@@ -4265,7 +4231,7 @@
         <v>0</v>
       </c>
       <c r="F69" s="34">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="G69" s="35"/>
       <c r="H69" s="36"/>
@@ -4291,7 +4257,7 @@
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
       <c r="B70" s="31" t="s">
@@ -4304,10 +4270,10 @@
         <v>9</v>
       </c>
       <c r="E70" s="26">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F70" s="34">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="G70" s="35"/>
       <c r="H70" s="36"/>
@@ -4333,7 +4299,7 @@
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>65</v>
       </c>
       <c r="B71" s="31" t="s">
@@ -4350,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="F71" s="34">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="G71" s="35"/>
       <c r="H71" s="36"/>
@@ -4376,7 +4342,7 @@
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>66</v>
       </c>
       <c r="B72" s="31" t="s">
@@ -4392,7 +4358,7 @@
         <v>1.0</v>
       </c>
       <c r="F72" s="34">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="G72" s="35"/>
       <c r="H72" s="36"/>
@@ -4418,7 +4384,7 @@
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>67</v>
       </c>
       <c r="B73" s="31" t="s">
@@ -4430,12 +4396,11 @@
       <c r="D73" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E73" s="33">
-        <f t="shared" ref="E73:E78" si="13">IF(D73&gt;0,COUNTIF(G73:Z73,"A"),"")</f>
-        <v>0</v>
+      <c r="E73" s="26">
+        <v>1.0</v>
       </c>
       <c r="F73" s="34">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="G73" s="35"/>
       <c r="H73" s="36"/>
@@ -4461,7 +4426,7 @@
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>68</v>
       </c>
       <c r="B74" s="31" t="s">
@@ -4473,12 +4438,11 @@
       <c r="D74" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E74" s="33">
-        <f t="shared" si="13"/>
-        <v>0</v>
+      <c r="E74" s="26">
+        <v>2.0</v>
       </c>
       <c r="F74" s="34">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="G74" s="35"/>
       <c r="H74" s="36"/>
@@ -4504,7 +4468,7 @@
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>69</v>
       </c>
       <c r="B75" s="31" t="s">
@@ -4516,12 +4480,11 @@
       <c r="D75" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E75" s="33">
-        <f t="shared" si="13"/>
-        <v>0</v>
+      <c r="E75" s="26">
+        <v>2.0</v>
       </c>
       <c r="F75" s="34">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="G75" s="35"/>
       <c r="H75" s="36"/>
@@ -4547,7 +4510,7 @@
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="B76" s="31" t="s">
@@ -4560,11 +4523,11 @@
         <v>9</v>
       </c>
       <c r="E76" s="33">
-        <f t="shared" si="13"/>
+        <f>IF(D76&gt;0,COUNTIF(G76:Z76,"A"),"")</f>
         <v>0</v>
       </c>
       <c r="F76" s="34">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="G76" s="35"/>
       <c r="H76" s="36"/>
@@ -4590,7 +4553,7 @@
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>71</v>
       </c>
       <c r="B77" s="31" t="s">
@@ -4602,12 +4565,11 @@
       <c r="D77" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E77" s="33">
-        <f t="shared" si="13"/>
-        <v>0</v>
+      <c r="E77" s="26">
+        <v>2.0</v>
       </c>
       <c r="F77" s="34">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="G77" s="35"/>
       <c r="H77" s="36"/>
@@ -4633,7 +4595,7 @@
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>72</v>
       </c>
       <c r="B78" s="31" t="s">
@@ -4645,12 +4607,11 @@
       <c r="D78" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E78" s="33">
-        <f t="shared" si="13"/>
-        <v>0</v>
+      <c r="E78" s="26">
+        <v>1.0</v>
       </c>
       <c r="F78" s="34">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="G78" s="35"/>
       <c r="H78" s="36"/>
@@ -4676,7 +4637,7 @@
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>73</v>
       </c>
       <c r="B79" s="31" t="s">
@@ -4692,7 +4653,7 @@
         <v>1.0</v>
       </c>
       <c r="F79" s="34">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="G79" s="35"/>
       <c r="H79" s="36"/>
@@ -4718,7 +4679,7 @@
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>74</v>
       </c>
       <c r="B80" s="31" t="s">
@@ -4730,12 +4691,11 @@
       <c r="D80" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E80" s="33">
-        <f t="shared" ref="E80:E96" si="14">IF(D80&gt;0,COUNTIF(G80:Z80,"A"),"")</f>
-        <v>0</v>
+      <c r="E80" s="26">
+        <v>2.0</v>
       </c>
       <c r="F80" s="34">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="G80" s="35"/>
       <c r="H80" s="36"/>
@@ -4761,21 +4721,21 @@
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="30" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B81" s="31"/>
       <c r="C81" s="32"/>
       <c r="D81" s="33"/>
       <c r="E81" s="33" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="F81" s="41" t="str">
-        <f t="shared" ref="F81:F96" si="15">IF(D81&gt;0,COUNTIF(G81:Z81,"P"),"")</f>
-        <v/>
-      </c>
-      <c r="G81" s="35"/>
+        <f t="shared" ref="E81:E96" si="5">IF(D81&gt;0,COUNTIF(G81:Z81,"A"),"")</f>
+        <v/>
+      </c>
+      <c r="F81" s="42" t="str">
+        <f t="shared" ref="F81:F96" si="6">IF(D81&gt;0,COUNTIF(G81:Z81,"P"),"")</f>
+        <v/>
+      </c>
+      <c r="G81" s="43"/>
       <c r="H81" s="36"/>
       <c r="I81" s="36"/>
       <c r="J81" s="36"/>
@@ -4799,21 +4759,21 @@
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="30" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B82" s="31"/>
       <c r="C82" s="32"/>
       <c r="D82" s="33"/>
       <c r="E82" s="33" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="F82" s="41" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="G82" s="35"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F82" s="42" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G82" s="43"/>
       <c r="H82" s="36"/>
       <c r="I82" s="36"/>
       <c r="J82" s="36"/>
@@ -4837,21 +4797,21 @@
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="30" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B83" s="31"/>
       <c r="C83" s="32"/>
       <c r="D83" s="33"/>
       <c r="E83" s="33" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="F83" s="41" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="G83" s="35"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F83" s="42" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G83" s="43"/>
       <c r="H83" s="36"/>
       <c r="I83" s="36"/>
       <c r="J83" s="36"/>
@@ -4875,21 +4835,21 @@
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="30" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B84" s="31"/>
       <c r="C84" s="32"/>
       <c r="D84" s="33"/>
       <c r="E84" s="33" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="F84" s="41" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="G84" s="35"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F84" s="42" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G84" s="43"/>
       <c r="H84" s="36"/>
       <c r="I84" s="36"/>
       <c r="J84" s="36"/>
@@ -4913,21 +4873,21 @@
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="30" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B85" s="31"/>
       <c r="C85" s="32"/>
       <c r="D85" s="33"/>
       <c r="E85" s="33" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="F85" s="41" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="G85" s="35"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F85" s="42" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G85" s="43"/>
       <c r="H85" s="36"/>
       <c r="I85" s="36"/>
       <c r="J85" s="36"/>
@@ -4951,21 +4911,21 @@
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="30" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="B86" s="42"/>
-      <c r="C86" s="42"/>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B86" s="44"/>
+      <c r="C86" s="44"/>
       <c r="D86" s="33"/>
       <c r="E86" s="33" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="F86" s="41" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="G86" s="35"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F86" s="42" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G86" s="43"/>
       <c r="H86" s="36"/>
       <c r="I86" s="36"/>
       <c r="J86" s="36"/>
@@ -4989,21 +4949,21 @@
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="30" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="B87" s="42"/>
-      <c r="C87" s="42"/>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B87" s="44"/>
+      <c r="C87" s="44"/>
       <c r="D87" s="33"/>
       <c r="E87" s="33" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="F87" s="41" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="G87" s="35"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F87" s="42" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G87" s="43"/>
       <c r="H87" s="36"/>
       <c r="I87" s="36"/>
       <c r="J87" s="36"/>
@@ -5027,21 +4987,21 @@
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="30" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="B88" s="42"/>
-      <c r="C88" s="42"/>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B88" s="44"/>
+      <c r="C88" s="44"/>
       <c r="D88" s="33"/>
       <c r="E88" s="33" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="F88" s="41" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="G88" s="35"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F88" s="42" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G88" s="43"/>
       <c r="H88" s="36"/>
       <c r="I88" s="36"/>
       <c r="J88" s="36"/>
@@ -5065,21 +5025,21 @@
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="30" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="B89" s="42"/>
-      <c r="C89" s="42"/>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B89" s="44"/>
+      <c r="C89" s="44"/>
       <c r="D89" s="33"/>
       <c r="E89" s="33" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="F89" s="41" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="G89" s="35"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F89" s="42" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G89" s="43"/>
       <c r="H89" s="36"/>
       <c r="I89" s="36"/>
       <c r="J89" s="36"/>
@@ -5103,21 +5063,21 @@
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="30" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="B90" s="42"/>
-      <c r="C90" s="42"/>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B90" s="44"/>
+      <c r="C90" s="44"/>
       <c r="D90" s="33"/>
       <c r="E90" s="33" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="F90" s="41" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="G90" s="35"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F90" s="42" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G90" s="43"/>
       <c r="H90" s="36"/>
       <c r="I90" s="36"/>
       <c r="J90" s="36"/>
@@ -5141,21 +5101,21 @@
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="30" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="B91" s="42"/>
-      <c r="C91" s="42"/>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B91" s="44"/>
+      <c r="C91" s="44"/>
       <c r="D91" s="33"/>
       <c r="E91" s="33" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="F91" s="41" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="G91" s="35"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F91" s="42" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G91" s="43"/>
       <c r="H91" s="36"/>
       <c r="I91" s="36"/>
       <c r="J91" s="36"/>
@@ -5179,21 +5139,21 @@
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="30" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="B92" s="42"/>
-      <c r="C92" s="42"/>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B92" s="44"/>
+      <c r="C92" s="44"/>
       <c r="D92" s="33"/>
       <c r="E92" s="33" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="F92" s="41" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="G92" s="35"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F92" s="42" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G92" s="43"/>
       <c r="H92" s="36"/>
       <c r="I92" s="36"/>
       <c r="J92" s="36"/>
@@ -5217,21 +5177,21 @@
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="30" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="B93" s="42"/>
-      <c r="C93" s="42"/>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B93" s="44"/>
+      <c r="C93" s="44"/>
       <c r="D93" s="33"/>
       <c r="E93" s="33" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="F93" s="41" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="G93" s="35"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F93" s="42" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G93" s="43"/>
       <c r="H93" s="36"/>
       <c r="I93" s="36"/>
       <c r="J93" s="36"/>
@@ -5255,21 +5215,21 @@
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="30" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="B94" s="42"/>
-      <c r="C94" s="42"/>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B94" s="44"/>
+      <c r="C94" s="44"/>
       <c r="D94" s="33"/>
       <c r="E94" s="33" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="F94" s="41" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="G94" s="35"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F94" s="42" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G94" s="43"/>
       <c r="H94" s="36"/>
       <c r="I94" s="36"/>
       <c r="J94" s="36"/>
@@ -5293,21 +5253,21 @@
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="30" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="B95" s="42"/>
-      <c r="C95" s="42"/>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B95" s="44"/>
+      <c r="C95" s="44"/>
       <c r="D95" s="33"/>
       <c r="E95" s="33" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="F95" s="41" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="G95" s="35"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F95" s="42" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G95" s="43"/>
       <c r="H95" s="36"/>
       <c r="I95" s="36"/>
       <c r="J95" s="36"/>
@@ -5331,21 +5291,21 @@
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="30" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="B96" s="42"/>
-      <c r="C96" s="42"/>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B96" s="44"/>
+      <c r="C96" s="44"/>
       <c r="D96" s="33"/>
       <c r="E96" s="33" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="F96" s="41" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="G96" s="35"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F96" s="42" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G96" s="43"/>
       <c r="H96" s="36"/>
       <c r="I96" s="36"/>
       <c r="J96" s="36"/>

--- a/attendance-files/HRM/HRM (B) Attendance Sheet.xlsx
+++ b/attendance-files/HRM/HRM (B) Attendance Sheet.xlsx
@@ -871,7 +871,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -961,16 +961,16 @@
     <xf borderId="22" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf borderId="20" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
@@ -982,9 +982,6 @@
     </xf>
     <xf borderId="18" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="23" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
@@ -1611,7 +1608,7 @@
         <v>2.0</v>
       </c>
       <c r="F7" s="27">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G7" s="28"/>
       <c r="H7" s="29"/>
@@ -1649,34 +1646,33 @@
       <c r="D8" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="33">
-        <f t="shared" ref="E8:E10" si="2">IF(D8&gt;0,COUNTIF(G8:Z8,"A"),"")</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="34">
+      <c r="E8" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="F8" s="33">
         <v>7.0</v>
       </c>
-      <c r="G8" s="35"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
-      <c r="S8" s="36"/>
-      <c r="T8" s="36"/>
-      <c r="U8" s="36"/>
-      <c r="V8" s="36"/>
-      <c r="W8" s="36"/>
-      <c r="X8" s="36"/>
-      <c r="Y8" s="36"/>
-      <c r="Z8" s="36"/>
-      <c r="AA8" s="36"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="35"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="35"/>
+      <c r="X8" s="35"/>
+      <c r="Y8" s="35"/>
+      <c r="Z8" s="35"/>
+      <c r="AA8" s="35"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="30">
@@ -1692,34 +1688,34 @@
       <c r="D9" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="33">
-        <f t="shared" si="2"/>
+      <c r="E9" s="36">
+        <f t="shared" ref="E9:E10" si="2">IF(D9&gt;0,COUNTIF(G9:Z9,"A"),"")</f>
         <v>0</v>
       </c>
-      <c r="F9" s="34">
-        <v>7.0</v>
-      </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
-      <c r="S9" s="36"/>
-      <c r="T9" s="36"/>
-      <c r="U9" s="36"/>
-      <c r="V9" s="36"/>
-      <c r="W9" s="36"/>
-      <c r="X9" s="36"/>
-      <c r="Y9" s="36"/>
-      <c r="Z9" s="36"/>
-      <c r="AA9" s="36"/>
+      <c r="F9" s="33">
+        <v>8.0</v>
+      </c>
+      <c r="G9" s="34"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="35"/>
+      <c r="W9" s="35"/>
+      <c r="X9" s="35"/>
+      <c r="Y9" s="35"/>
+      <c r="Z9" s="35"/>
+      <c r="AA9" s="35"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="30">
@@ -1735,34 +1731,34 @@
       <c r="D10" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E10" s="36">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F10" s="34">
-        <v>7.0</v>
-      </c>
-      <c r="G10" s="35"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
-      <c r="S10" s="36"/>
-      <c r="T10" s="36"/>
-      <c r="U10" s="36"/>
-      <c r="V10" s="36"/>
-      <c r="W10" s="36"/>
-      <c r="X10" s="36"/>
-      <c r="Y10" s="36"/>
-      <c r="Z10" s="36"/>
-      <c r="AA10" s="36"/>
+      <c r="F10" s="33">
+        <v>8.0</v>
+      </c>
+      <c r="G10" s="34"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="35"/>
+      <c r="X10" s="35"/>
+      <c r="Y10" s="35"/>
+      <c r="Z10" s="35"/>
+      <c r="AA10" s="35"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="30">
@@ -1781,30 +1777,30 @@
       <c r="E11" s="26">
         <v>1.0</v>
       </c>
-      <c r="F11" s="34">
-        <v>6.0</v>
-      </c>
-      <c r="G11" s="35"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
-      <c r="S11" s="36"/>
-      <c r="T11" s="36"/>
-      <c r="U11" s="36"/>
-      <c r="V11" s="36"/>
-      <c r="W11" s="36"/>
-      <c r="X11" s="36"/>
-      <c r="Y11" s="36"/>
-      <c r="Z11" s="36"/>
-      <c r="AA11" s="36"/>
+      <c r="F11" s="33">
+        <v>7.0</v>
+      </c>
+      <c r="G11" s="34"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="35"/>
+      <c r="X11" s="35"/>
+      <c r="Y11" s="35"/>
+      <c r="Z11" s="35"/>
+      <c r="AA11" s="35"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="30">
@@ -1823,30 +1819,30 @@
       <c r="E12" s="26">
         <v>1.0</v>
       </c>
-      <c r="F12" s="34">
-        <v>6.0</v>
-      </c>
-      <c r="G12" s="35"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="36"/>
-      <c r="U12" s="36"/>
-      <c r="V12" s="36"/>
-      <c r="W12" s="36"/>
-      <c r="X12" s="36"/>
-      <c r="Y12" s="36"/>
-      <c r="Z12" s="36"/>
-      <c r="AA12" s="36"/>
+      <c r="F12" s="33">
+        <v>7.0</v>
+      </c>
+      <c r="G12" s="34"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="35"/>
+      <c r="X12" s="35"/>
+      <c r="Y12" s="35"/>
+      <c r="Z12" s="35"/>
+      <c r="AA12" s="35"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="30">
@@ -1865,30 +1861,30 @@
       <c r="E13" s="26">
         <v>1.0</v>
       </c>
-      <c r="F13" s="34">
-        <v>6.0</v>
-      </c>
-      <c r="G13" s="35"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
-      <c r="S13" s="36"/>
-      <c r="T13" s="36"/>
-      <c r="U13" s="36"/>
-      <c r="V13" s="36"/>
-      <c r="W13" s="36"/>
-      <c r="X13" s="36"/>
-      <c r="Y13" s="36"/>
-      <c r="Z13" s="36"/>
-      <c r="AA13" s="36"/>
+      <c r="F13" s="33">
+        <v>7.0</v>
+      </c>
+      <c r="G13" s="34"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="35"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="35"/>
+      <c r="V13" s="35"/>
+      <c r="W13" s="35"/>
+      <c r="X13" s="35"/>
+      <c r="Y13" s="35"/>
+      <c r="Z13" s="35"/>
+      <c r="AA13" s="35"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="30">
@@ -1904,34 +1900,34 @@
       <c r="D14" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="33">
+      <c r="E14" s="36">
         <f>IF(D14&gt;0,COUNTIF(G14:Z14,"A"),"")</f>
         <v>0</v>
       </c>
-      <c r="F14" s="34">
-        <v>7.0</v>
-      </c>
-      <c r="G14" s="35"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
-      <c r="S14" s="36"/>
-      <c r="T14" s="36"/>
-      <c r="U14" s="36"/>
-      <c r="V14" s="36"/>
-      <c r="W14" s="36"/>
-      <c r="X14" s="36"/>
-      <c r="Y14" s="36"/>
-      <c r="Z14" s="36"/>
-      <c r="AA14" s="36"/>
+      <c r="F14" s="33">
+        <v>8.0</v>
+      </c>
+      <c r="G14" s="34"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="35"/>
+      <c r="V14" s="35"/>
+      <c r="W14" s="35"/>
+      <c r="X14" s="35"/>
+      <c r="Y14" s="35"/>
+      <c r="Z14" s="35"/>
+      <c r="AA14" s="35"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="30">
@@ -1950,30 +1946,30 @@
       <c r="E15" s="26">
         <v>2.0</v>
       </c>
-      <c r="F15" s="34">
-        <v>5.0</v>
-      </c>
-      <c r="G15" s="35"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="36"/>
-      <c r="U15" s="36"/>
-      <c r="V15" s="36"/>
-      <c r="W15" s="36"/>
-      <c r="X15" s="36"/>
-      <c r="Y15" s="36"/>
-      <c r="Z15" s="36"/>
-      <c r="AA15" s="36"/>
+      <c r="F15" s="33">
+        <v>6.0</v>
+      </c>
+      <c r="G15" s="34"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="35"/>
+      <c r="V15" s="35"/>
+      <c r="W15" s="35"/>
+      <c r="X15" s="35"/>
+      <c r="Y15" s="35"/>
+      <c r="Z15" s="35"/>
+      <c r="AA15" s="35"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="30">
@@ -1989,34 +1985,34 @@
       <c r="D16" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="33">
+      <c r="E16" s="36">
         <f>IF(D16&gt;0,COUNTIF(G16:Z16,"A"),"")</f>
         <v>0</v>
       </c>
-      <c r="F16" s="34">
-        <v>7.0</v>
-      </c>
-      <c r="G16" s="35"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
-      <c r="S16" s="36"/>
-      <c r="T16" s="36"/>
-      <c r="U16" s="36"/>
-      <c r="V16" s="36"/>
-      <c r="W16" s="36"/>
-      <c r="X16" s="36"/>
-      <c r="Y16" s="36"/>
-      <c r="Z16" s="36"/>
-      <c r="AA16" s="36"/>
+      <c r="F16" s="33">
+        <v>8.0</v>
+      </c>
+      <c r="G16" s="34"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="35"/>
+      <c r="X16" s="35"/>
+      <c r="Y16" s="35"/>
+      <c r="Z16" s="35"/>
+      <c r="AA16" s="35"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="30">
@@ -2033,32 +2029,32 @@
         <v>9</v>
       </c>
       <c r="E17" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="F17" s="34">
         <v>4.0</v>
       </c>
-      <c r="G17" s="35"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
-      <c r="S17" s="36"/>
-      <c r="T17" s="36"/>
-      <c r="U17" s="36"/>
-      <c r="V17" s="36"/>
-      <c r="W17" s="36"/>
-      <c r="X17" s="36"/>
-      <c r="Y17" s="36"/>
-      <c r="Z17" s="36"/>
-      <c r="AA17" s="36"/>
+      <c r="F17" s="33">
+        <v>4.0</v>
+      </c>
+      <c r="G17" s="34"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="35"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="35"/>
+      <c r="X17" s="35"/>
+      <c r="Y17" s="35"/>
+      <c r="Z17" s="35"/>
+      <c r="AA17" s="35"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="30">
@@ -2074,34 +2070,33 @@
       <c r="D18" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="33">
-        <f>IF(D18&gt;0,COUNTIF(G18:Z18,"A"),"")</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="34">
+      <c r="E18" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="F18" s="33">
         <v>7.0</v>
       </c>
-      <c r="G18" s="35"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
-      <c r="S18" s="36"/>
-      <c r="T18" s="36"/>
-      <c r="U18" s="36"/>
-      <c r="V18" s="36"/>
-      <c r="W18" s="36"/>
-      <c r="X18" s="36"/>
-      <c r="Y18" s="36"/>
-      <c r="Z18" s="36"/>
-      <c r="AA18" s="36"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="35"/>
+      <c r="X18" s="35"/>
+      <c r="Y18" s="35"/>
+      <c r="Z18" s="35"/>
+      <c r="AA18" s="35"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="30">
@@ -2120,30 +2115,30 @@
       <c r="E19" s="26">
         <v>2.0</v>
       </c>
-      <c r="F19" s="34">
-        <v>5.0</v>
-      </c>
-      <c r="G19" s="35"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
-      <c r="S19" s="36"/>
-      <c r="T19" s="36"/>
-      <c r="U19" s="36"/>
-      <c r="V19" s="36"/>
-      <c r="W19" s="36"/>
-      <c r="X19" s="36"/>
-      <c r="Y19" s="36"/>
-      <c r="Z19" s="36"/>
-      <c r="AA19" s="36"/>
+      <c r="F19" s="33">
+        <v>6.0</v>
+      </c>
+      <c r="G19" s="34"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="35"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="35"/>
+      <c r="X19" s="35"/>
+      <c r="Y19" s="35"/>
+      <c r="Z19" s="35"/>
+      <c r="AA19" s="35"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="30">
@@ -2162,30 +2157,30 @@
       <c r="E20" s="26">
         <v>2.0</v>
       </c>
-      <c r="F20" s="34">
-        <v>5.0</v>
-      </c>
-      <c r="G20" s="35"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
-      <c r="S20" s="36"/>
-      <c r="T20" s="36"/>
-      <c r="U20" s="36"/>
-      <c r="V20" s="36"/>
-      <c r="W20" s="36"/>
-      <c r="X20" s="36"/>
-      <c r="Y20" s="36"/>
-      <c r="Z20" s="36"/>
-      <c r="AA20" s="36"/>
+      <c r="F20" s="33">
+        <v>6.0</v>
+      </c>
+      <c r="G20" s="34"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="35"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="35"/>
+      <c r="X20" s="35"/>
+      <c r="Y20" s="35"/>
+      <c r="Z20" s="35"/>
+      <c r="AA20" s="35"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="30">
@@ -2204,30 +2199,30 @@
       <c r="E21" s="26">
         <v>4.0</v>
       </c>
-      <c r="F21" s="34">
-        <v>3.0</v>
-      </c>
-      <c r="G21" s="35"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
-      <c r="S21" s="36"/>
-      <c r="T21" s="36"/>
-      <c r="U21" s="36"/>
-      <c r="V21" s="36"/>
-      <c r="W21" s="36"/>
-      <c r="X21" s="36"/>
-      <c r="Y21" s="36"/>
-      <c r="Z21" s="36"/>
-      <c r="AA21" s="36"/>
+      <c r="F21" s="33">
+        <v>4.0</v>
+      </c>
+      <c r="G21" s="34"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="35"/>
+      <c r="S21" s="35"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="35"/>
+      <c r="V21" s="35"/>
+      <c r="W21" s="35"/>
+      <c r="X21" s="35"/>
+      <c r="Y21" s="35"/>
+      <c r="Z21" s="35"/>
+      <c r="AA21" s="35"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="30">
@@ -2246,30 +2241,30 @@
       <c r="E22" s="26">
         <v>1.0</v>
       </c>
-      <c r="F22" s="34">
-        <v>6.0</v>
-      </c>
-      <c r="G22" s="35"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
-      <c r="S22" s="36"/>
-      <c r="T22" s="36"/>
-      <c r="U22" s="36"/>
-      <c r="V22" s="36"/>
-      <c r="W22" s="36"/>
-      <c r="X22" s="36"/>
-      <c r="Y22" s="36"/>
-      <c r="Z22" s="36"/>
-      <c r="AA22" s="36"/>
+      <c r="F22" s="33">
+        <v>7.0</v>
+      </c>
+      <c r="G22" s="34"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="35"/>
+      <c r="X22" s="35"/>
+      <c r="Y22" s="35"/>
+      <c r="Z22" s="35"/>
+      <c r="AA22" s="35"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="30">
@@ -2288,30 +2283,30 @@
       <c r="E23" s="26">
         <v>2.0</v>
       </c>
-      <c r="F23" s="34">
-        <v>5.0</v>
-      </c>
-      <c r="G23" s="35"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="36"/>
-      <c r="S23" s="36"/>
-      <c r="T23" s="36"/>
-      <c r="U23" s="36"/>
-      <c r="V23" s="36"/>
-      <c r="W23" s="36"/>
-      <c r="X23" s="36"/>
-      <c r="Y23" s="36"/>
-      <c r="Z23" s="36"/>
-      <c r="AA23" s="36"/>
+      <c r="F23" s="33">
+        <v>6.0</v>
+      </c>
+      <c r="G23" s="34"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="35"/>
+      <c r="V23" s="35"/>
+      <c r="W23" s="35"/>
+      <c r="X23" s="35"/>
+      <c r="Y23" s="35"/>
+      <c r="Z23" s="35"/>
+      <c r="AA23" s="35"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="30">
@@ -2330,30 +2325,30 @@
       <c r="E24" s="26">
         <v>1.0</v>
       </c>
-      <c r="F24" s="34">
-        <v>6.0</v>
-      </c>
-      <c r="G24" s="35"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="36"/>
-      <c r="S24" s="36"/>
-      <c r="T24" s="36"/>
-      <c r="U24" s="36"/>
-      <c r="V24" s="36"/>
-      <c r="W24" s="36"/>
-      <c r="X24" s="36"/>
-      <c r="Y24" s="36"/>
-      <c r="Z24" s="36"/>
-      <c r="AA24" s="36"/>
+      <c r="F24" s="33">
+        <v>7.0</v>
+      </c>
+      <c r="G24" s="34"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="35"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="35"/>
+      <c r="V24" s="35"/>
+      <c r="W24" s="35"/>
+      <c r="X24" s="35"/>
+      <c r="Y24" s="35"/>
+      <c r="Z24" s="35"/>
+      <c r="AA24" s="35"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="30">
@@ -2372,30 +2367,30 @@
       <c r="E25" s="26">
         <v>2.0</v>
       </c>
-      <c r="F25" s="34">
-        <v>5.0</v>
-      </c>
-      <c r="G25" s="35"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="36"/>
-      <c r="R25" s="36"/>
-      <c r="S25" s="36"/>
-      <c r="T25" s="36"/>
-      <c r="U25" s="36"/>
-      <c r="V25" s="36"/>
-      <c r="W25" s="36"/>
-      <c r="X25" s="36"/>
-      <c r="Y25" s="36"/>
-      <c r="Z25" s="36"/>
-      <c r="AA25" s="36"/>
+      <c r="F25" s="33">
+        <v>6.0</v>
+      </c>
+      <c r="G25" s="34"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="35"/>
+      <c r="S25" s="35"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="35"/>
+      <c r="V25" s="35"/>
+      <c r="W25" s="35"/>
+      <c r="X25" s="35"/>
+      <c r="Y25" s="35"/>
+      <c r="Z25" s="35"/>
+      <c r="AA25" s="35"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="30">
@@ -2414,30 +2409,30 @@
       <c r="E26" s="26">
         <v>1.0</v>
       </c>
-      <c r="F26" s="34">
-        <v>6.0</v>
-      </c>
-      <c r="G26" s="35"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="36"/>
-      <c r="R26" s="36"/>
-      <c r="S26" s="36"/>
-      <c r="T26" s="36"/>
-      <c r="U26" s="36"/>
-      <c r="V26" s="36"/>
-      <c r="W26" s="36"/>
-      <c r="X26" s="36"/>
-      <c r="Y26" s="36"/>
-      <c r="Z26" s="36"/>
-      <c r="AA26" s="36"/>
+      <c r="F26" s="33">
+        <v>7.0</v>
+      </c>
+      <c r="G26" s="34"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="35"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="35"/>
+      <c r="X26" s="35"/>
+      <c r="Y26" s="35"/>
+      <c r="Z26" s="35"/>
+      <c r="AA26" s="35"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="30">
@@ -2453,34 +2448,33 @@
       <c r="D27" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="33">
-        <f>IF(D27&gt;0,COUNTIF(G27:Z27,"A"),"")</f>
-        <v>0</v>
-      </c>
-      <c r="F27" s="34">
+      <c r="E27" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="F27" s="33">
         <v>7.0</v>
       </c>
-      <c r="G27" s="35"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="36"/>
-      <c r="R27" s="36"/>
-      <c r="S27" s="36"/>
-      <c r="T27" s="36"/>
-      <c r="U27" s="36"/>
-      <c r="V27" s="36"/>
-      <c r="W27" s="36"/>
-      <c r="X27" s="36"/>
-      <c r="Y27" s="36"/>
-      <c r="Z27" s="36"/>
-      <c r="AA27" s="36"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="35"/>
+      <c r="S27" s="35"/>
+      <c r="T27" s="35"/>
+      <c r="U27" s="35"/>
+      <c r="V27" s="35"/>
+      <c r="W27" s="35"/>
+      <c r="X27" s="35"/>
+      <c r="Y27" s="35"/>
+      <c r="Z27" s="35"/>
+      <c r="AA27" s="35"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="30">
@@ -2499,30 +2493,30 @@
       <c r="E28" s="26">
         <v>3.0</v>
       </c>
-      <c r="F28" s="34">
-        <v>4.0</v>
-      </c>
-      <c r="G28" s="35"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="36"/>
-      <c r="R28" s="36"/>
-      <c r="S28" s="36"/>
-      <c r="T28" s="36"/>
-      <c r="U28" s="36"/>
-      <c r="V28" s="36"/>
-      <c r="W28" s="36"/>
-      <c r="X28" s="36"/>
-      <c r="Y28" s="36"/>
-      <c r="Z28" s="36"/>
-      <c r="AA28" s="36"/>
+      <c r="F28" s="33">
+        <v>5.0</v>
+      </c>
+      <c r="G28" s="34"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="35"/>
+      <c r="R28" s="35"/>
+      <c r="S28" s="35"/>
+      <c r="T28" s="35"/>
+      <c r="U28" s="35"/>
+      <c r="V28" s="35"/>
+      <c r="W28" s="35"/>
+      <c r="X28" s="35"/>
+      <c r="Y28" s="35"/>
+      <c r="Z28" s="35"/>
+      <c r="AA28" s="35"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="30">
@@ -2538,34 +2532,34 @@
       <c r="D29" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="33">
+      <c r="E29" s="36">
         <f>IF(D29&gt;0,COUNTIF(G29:Z29,"A"),"")</f>
         <v>0</v>
       </c>
-      <c r="F29" s="34">
-        <v>7.0</v>
-      </c>
-      <c r="G29" s="35"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="36"/>
-      <c r="O29" s="36"/>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="36"/>
-      <c r="R29" s="36"/>
-      <c r="S29" s="36"/>
-      <c r="T29" s="36"/>
-      <c r="U29" s="36"/>
-      <c r="V29" s="36"/>
-      <c r="W29" s="36"/>
-      <c r="X29" s="36"/>
-      <c r="Y29" s="36"/>
-      <c r="Z29" s="36"/>
-      <c r="AA29" s="36"/>
+      <c r="F29" s="33">
+        <v>8.0</v>
+      </c>
+      <c r="G29" s="34"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="35"/>
+      <c r="R29" s="35"/>
+      <c r="S29" s="35"/>
+      <c r="T29" s="35"/>
+      <c r="U29" s="35"/>
+      <c r="V29" s="35"/>
+      <c r="W29" s="35"/>
+      <c r="X29" s="35"/>
+      <c r="Y29" s="35"/>
+      <c r="Z29" s="35"/>
+      <c r="AA29" s="35"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="30">
@@ -2584,30 +2578,30 @@
       <c r="E30" s="26">
         <v>1.0</v>
       </c>
-      <c r="F30" s="34">
-        <v>6.0</v>
-      </c>
-      <c r="G30" s="35"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="36"/>
-      <c r="O30" s="36"/>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="36"/>
-      <c r="R30" s="36"/>
-      <c r="S30" s="36"/>
-      <c r="T30" s="36"/>
-      <c r="U30" s="36"/>
-      <c r="V30" s="36"/>
-      <c r="W30" s="36"/>
-      <c r="X30" s="36"/>
-      <c r="Y30" s="36"/>
-      <c r="Z30" s="36"/>
-      <c r="AA30" s="36"/>
+      <c r="F30" s="33">
+        <v>7.0</v>
+      </c>
+      <c r="G30" s="34"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="35"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="35"/>
+      <c r="Q30" s="35"/>
+      <c r="R30" s="35"/>
+      <c r="S30" s="35"/>
+      <c r="T30" s="35"/>
+      <c r="U30" s="35"/>
+      <c r="V30" s="35"/>
+      <c r="W30" s="35"/>
+      <c r="X30" s="35"/>
+      <c r="Y30" s="35"/>
+      <c r="Z30" s="35"/>
+      <c r="AA30" s="35"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="30">
@@ -2626,30 +2620,30 @@
       <c r="E31" s="26">
         <v>3.0</v>
       </c>
-      <c r="F31" s="34">
-        <v>4.0</v>
-      </c>
-      <c r="G31" s="35"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="36"/>
-      <c r="N31" s="36"/>
-      <c r="O31" s="36"/>
-      <c r="P31" s="36"/>
-      <c r="Q31" s="36"/>
-      <c r="R31" s="36"/>
-      <c r="S31" s="36"/>
-      <c r="T31" s="36"/>
-      <c r="U31" s="36"/>
-      <c r="V31" s="36"/>
-      <c r="W31" s="36"/>
-      <c r="X31" s="36"/>
-      <c r="Y31" s="36"/>
-      <c r="Z31" s="36"/>
-      <c r="AA31" s="36"/>
+      <c r="F31" s="33">
+        <v>5.0</v>
+      </c>
+      <c r="G31" s="34"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
+      <c r="R31" s="35"/>
+      <c r="S31" s="35"/>
+      <c r="T31" s="35"/>
+      <c r="U31" s="35"/>
+      <c r="V31" s="35"/>
+      <c r="W31" s="35"/>
+      <c r="X31" s="35"/>
+      <c r="Y31" s="35"/>
+      <c r="Z31" s="35"/>
+      <c r="AA31" s="35"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="30">
@@ -2668,30 +2662,30 @@
       <c r="E32" s="26">
         <v>1.0</v>
       </c>
-      <c r="F32" s="34">
-        <v>6.0</v>
-      </c>
-      <c r="G32" s="35"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="36"/>
-      <c r="N32" s="36"/>
-      <c r="O32" s="36"/>
-      <c r="P32" s="36"/>
-      <c r="Q32" s="36"/>
-      <c r="R32" s="36"/>
-      <c r="S32" s="36"/>
-      <c r="T32" s="36"/>
-      <c r="U32" s="36"/>
-      <c r="V32" s="36"/>
-      <c r="W32" s="36"/>
-      <c r="X32" s="36"/>
-      <c r="Y32" s="36"/>
-      <c r="Z32" s="36"/>
-      <c r="AA32" s="36"/>
+      <c r="F32" s="33">
+        <v>7.0</v>
+      </c>
+      <c r="G32" s="34"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="35"/>
+      <c r="S32" s="35"/>
+      <c r="T32" s="35"/>
+      <c r="U32" s="35"/>
+      <c r="V32" s="35"/>
+      <c r="W32" s="35"/>
+      <c r="X32" s="35"/>
+      <c r="Y32" s="35"/>
+      <c r="Z32" s="35"/>
+      <c r="AA32" s="35"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="30">
@@ -2710,30 +2704,30 @@
       <c r="E33" s="26">
         <v>1.0</v>
       </c>
-      <c r="F33" s="34">
-        <v>6.0</v>
-      </c>
-      <c r="G33" s="35"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="36"/>
-      <c r="O33" s="36"/>
-      <c r="P33" s="36"/>
-      <c r="Q33" s="36"/>
-      <c r="R33" s="36"/>
-      <c r="S33" s="36"/>
-      <c r="T33" s="36"/>
-      <c r="U33" s="36"/>
-      <c r="V33" s="36"/>
-      <c r="W33" s="36"/>
-      <c r="X33" s="36"/>
-      <c r="Y33" s="36"/>
-      <c r="Z33" s="36"/>
-      <c r="AA33" s="36"/>
+      <c r="F33" s="33">
+        <v>7.0</v>
+      </c>
+      <c r="G33" s="34"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="35"/>
+      <c r="P33" s="35"/>
+      <c r="Q33" s="35"/>
+      <c r="R33" s="35"/>
+      <c r="S33" s="35"/>
+      <c r="T33" s="35"/>
+      <c r="U33" s="35"/>
+      <c r="V33" s="35"/>
+      <c r="W33" s="35"/>
+      <c r="X33" s="35"/>
+      <c r="Y33" s="35"/>
+      <c r="Z33" s="35"/>
+      <c r="AA33" s="35"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="30">
@@ -2749,34 +2743,33 @@
       <c r="D34" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="33">
-        <f>IF(D34&gt;0,COUNTIF(G34:Z34,"A"),"")</f>
-        <v>0</v>
-      </c>
-      <c r="F34" s="34">
+      <c r="E34" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="F34" s="33">
         <v>7.0</v>
       </c>
-      <c r="G34" s="35"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="36"/>
-      <c r="N34" s="36"/>
-      <c r="O34" s="36"/>
-      <c r="P34" s="36"/>
-      <c r="Q34" s="36"/>
-      <c r="R34" s="36"/>
-      <c r="S34" s="36"/>
-      <c r="T34" s="36"/>
-      <c r="U34" s="36"/>
-      <c r="V34" s="36"/>
-      <c r="W34" s="36"/>
-      <c r="X34" s="36"/>
-      <c r="Y34" s="36"/>
-      <c r="Z34" s="36"/>
-      <c r="AA34" s="36"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="35"/>
+      <c r="O34" s="35"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="35"/>
+      <c r="R34" s="35"/>
+      <c r="S34" s="35"/>
+      <c r="T34" s="35"/>
+      <c r="U34" s="35"/>
+      <c r="V34" s="35"/>
+      <c r="W34" s="35"/>
+      <c r="X34" s="35"/>
+      <c r="Y34" s="35"/>
+      <c r="Z34" s="35"/>
+      <c r="AA34" s="35"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="30">
@@ -2795,30 +2788,30 @@
       <c r="E35" s="26">
         <v>4.0</v>
       </c>
-      <c r="F35" s="34">
-        <v>3.0</v>
-      </c>
-      <c r="G35" s="35"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36"/>
-      <c r="L35" s="36"/>
-      <c r="M35" s="36"/>
-      <c r="N35" s="36"/>
-      <c r="O35" s="36"/>
-      <c r="P35" s="36"/>
-      <c r="Q35" s="36"/>
-      <c r="R35" s="36"/>
-      <c r="S35" s="36"/>
-      <c r="T35" s="36"/>
-      <c r="U35" s="36"/>
-      <c r="V35" s="36"/>
-      <c r="W35" s="36"/>
-      <c r="X35" s="36"/>
-      <c r="Y35" s="36"/>
-      <c r="Z35" s="36"/>
-      <c r="AA35" s="36"/>
+      <c r="F35" s="33">
+        <v>4.0</v>
+      </c>
+      <c r="G35" s="34"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="35"/>
+      <c r="O35" s="35"/>
+      <c r="P35" s="35"/>
+      <c r="Q35" s="35"/>
+      <c r="R35" s="35"/>
+      <c r="S35" s="35"/>
+      <c r="T35" s="35"/>
+      <c r="U35" s="35"/>
+      <c r="V35" s="35"/>
+      <c r="W35" s="35"/>
+      <c r="X35" s="35"/>
+      <c r="Y35" s="35"/>
+      <c r="Z35" s="35"/>
+      <c r="AA35" s="35"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="30">
@@ -2837,30 +2830,30 @@
       <c r="E36" s="26">
         <v>2.0</v>
       </c>
-      <c r="F36" s="34">
-        <v>5.0</v>
-      </c>
-      <c r="G36" s="35"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="36"/>
-      <c r="M36" s="36"/>
-      <c r="N36" s="36"/>
-      <c r="O36" s="36"/>
-      <c r="P36" s="36"/>
-      <c r="Q36" s="36"/>
-      <c r="R36" s="36"/>
-      <c r="S36" s="36"/>
-      <c r="T36" s="36"/>
-      <c r="U36" s="36"/>
-      <c r="V36" s="36"/>
-      <c r="W36" s="36"/>
-      <c r="X36" s="36"/>
-      <c r="Y36" s="36"/>
-      <c r="Z36" s="36"/>
-      <c r="AA36" s="36"/>
+      <c r="F36" s="33">
+        <v>6.0</v>
+      </c>
+      <c r="G36" s="34"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="35"/>
+      <c r="O36" s="35"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="35"/>
+      <c r="R36" s="35"/>
+      <c r="S36" s="35"/>
+      <c r="T36" s="35"/>
+      <c r="U36" s="35"/>
+      <c r="V36" s="35"/>
+      <c r="W36" s="35"/>
+      <c r="X36" s="35"/>
+      <c r="Y36" s="35"/>
+      <c r="Z36" s="35"/>
+      <c r="AA36" s="35"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="30">
@@ -2879,30 +2872,30 @@
       <c r="E37" s="26">
         <v>1.0</v>
       </c>
-      <c r="F37" s="34">
-        <v>6.0</v>
-      </c>
-      <c r="G37" s="35"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="36"/>
-      <c r="N37" s="36"/>
-      <c r="O37" s="36"/>
-      <c r="P37" s="36"/>
-      <c r="Q37" s="36"/>
-      <c r="R37" s="36"/>
-      <c r="S37" s="36"/>
-      <c r="T37" s="36"/>
-      <c r="U37" s="36"/>
-      <c r="V37" s="36"/>
-      <c r="W37" s="36"/>
-      <c r="X37" s="36"/>
-      <c r="Y37" s="36"/>
-      <c r="Z37" s="36"/>
-      <c r="AA37" s="36"/>
+      <c r="F37" s="33">
+        <v>7.0</v>
+      </c>
+      <c r="G37" s="34"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="35"/>
+      <c r="O37" s="35"/>
+      <c r="P37" s="35"/>
+      <c r="Q37" s="35"/>
+      <c r="R37" s="35"/>
+      <c r="S37" s="35"/>
+      <c r="T37" s="35"/>
+      <c r="U37" s="35"/>
+      <c r="V37" s="35"/>
+      <c r="W37" s="35"/>
+      <c r="X37" s="35"/>
+      <c r="Y37" s="35"/>
+      <c r="Z37" s="35"/>
+      <c r="AA37" s="35"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="30">
@@ -2918,34 +2911,34 @@
       <c r="D38" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="33">
+      <c r="E38" s="36">
         <f>IF(D38&gt;0,COUNTIF(G38:Z38,"A"),"")</f>
         <v>0</v>
       </c>
-      <c r="F38" s="34">
-        <v>7.0</v>
-      </c>
-      <c r="G38" s="35"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="36"/>
-      <c r="L38" s="36"/>
-      <c r="M38" s="36"/>
-      <c r="N38" s="36"/>
-      <c r="O38" s="36"/>
-      <c r="P38" s="36"/>
-      <c r="Q38" s="36"/>
-      <c r="R38" s="36"/>
-      <c r="S38" s="36"/>
-      <c r="T38" s="36"/>
-      <c r="U38" s="36"/>
-      <c r="V38" s="36"/>
-      <c r="W38" s="36"/>
-      <c r="X38" s="36"/>
-      <c r="Y38" s="36"/>
-      <c r="Z38" s="36"/>
-      <c r="AA38" s="36"/>
+      <c r="F38" s="33">
+        <v>8.0</v>
+      </c>
+      <c r="G38" s="34"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="35"/>
+      <c r="O38" s="35"/>
+      <c r="P38" s="35"/>
+      <c r="Q38" s="35"/>
+      <c r="R38" s="35"/>
+      <c r="S38" s="35"/>
+      <c r="T38" s="35"/>
+      <c r="U38" s="35"/>
+      <c r="V38" s="35"/>
+      <c r="W38" s="35"/>
+      <c r="X38" s="35"/>
+      <c r="Y38" s="35"/>
+      <c r="Z38" s="35"/>
+      <c r="AA38" s="35"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="30">
@@ -2962,32 +2955,32 @@
         <v>9</v>
       </c>
       <c r="E39" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="F39" s="34">
+        <v>3.0</v>
+      </c>
+      <c r="F39" s="33">
         <v>5.0</v>
       </c>
-      <c r="G39" s="35"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="36"/>
-      <c r="M39" s="36"/>
-      <c r="N39" s="36"/>
-      <c r="O39" s="36"/>
-      <c r="P39" s="36"/>
-      <c r="Q39" s="36"/>
-      <c r="R39" s="36"/>
-      <c r="S39" s="36"/>
-      <c r="T39" s="36"/>
-      <c r="U39" s="36"/>
-      <c r="V39" s="36"/>
-      <c r="W39" s="36"/>
-      <c r="X39" s="36"/>
-      <c r="Y39" s="36"/>
-      <c r="Z39" s="36"/>
-      <c r="AA39" s="36"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="35"/>
+      <c r="N39" s="35"/>
+      <c r="O39" s="35"/>
+      <c r="P39" s="35"/>
+      <c r="Q39" s="35"/>
+      <c r="R39" s="35"/>
+      <c r="S39" s="35"/>
+      <c r="T39" s="35"/>
+      <c r="U39" s="35"/>
+      <c r="V39" s="35"/>
+      <c r="W39" s="35"/>
+      <c r="X39" s="35"/>
+      <c r="Y39" s="35"/>
+      <c r="Z39" s="35"/>
+      <c r="AA39" s="35"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="30">
@@ -3003,34 +2996,34 @@
       <c r="D40" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E40" s="33">
+      <c r="E40" s="36">
         <f>IF(D40&gt;0,COUNTIF(G40:Z40,"A"),"")</f>
         <v>0</v>
       </c>
-      <c r="F40" s="34">
-        <v>7.0</v>
-      </c>
-      <c r="G40" s="35"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="36"/>
-      <c r="M40" s="36"/>
-      <c r="N40" s="36"/>
-      <c r="O40" s="36"/>
-      <c r="P40" s="36"/>
-      <c r="Q40" s="36"/>
-      <c r="R40" s="36"/>
-      <c r="S40" s="36"/>
-      <c r="T40" s="36"/>
-      <c r="U40" s="36"/>
-      <c r="V40" s="36"/>
-      <c r="W40" s="36"/>
-      <c r="X40" s="36"/>
-      <c r="Y40" s="36"/>
-      <c r="Z40" s="36"/>
-      <c r="AA40" s="36"/>
+      <c r="F40" s="33">
+        <v>8.0</v>
+      </c>
+      <c r="G40" s="34"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="35"/>
+      <c r="N40" s="35"/>
+      <c r="O40" s="35"/>
+      <c r="P40" s="35"/>
+      <c r="Q40" s="35"/>
+      <c r="R40" s="35"/>
+      <c r="S40" s="35"/>
+      <c r="T40" s="35"/>
+      <c r="U40" s="35"/>
+      <c r="V40" s="35"/>
+      <c r="W40" s="35"/>
+      <c r="X40" s="35"/>
+      <c r="Y40" s="35"/>
+      <c r="Z40" s="35"/>
+      <c r="AA40" s="35"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="30">
@@ -3047,32 +3040,32 @@
         <v>9</v>
       </c>
       <c r="E41" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="F41" s="34">
+        <v>2.0</v>
+      </c>
+      <c r="F41" s="33">
         <v>6.0</v>
       </c>
-      <c r="G41" s="35"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="36"/>
-      <c r="L41" s="36"/>
-      <c r="M41" s="36"/>
-      <c r="N41" s="36"/>
-      <c r="O41" s="36"/>
-      <c r="P41" s="36"/>
-      <c r="Q41" s="36"/>
-      <c r="R41" s="36"/>
-      <c r="S41" s="36"/>
-      <c r="T41" s="36"/>
-      <c r="U41" s="36"/>
-      <c r="V41" s="36"/>
-      <c r="W41" s="36"/>
-      <c r="X41" s="36"/>
-      <c r="Y41" s="36"/>
-      <c r="Z41" s="36"/>
-      <c r="AA41" s="36"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="35"/>
+      <c r="N41" s="35"/>
+      <c r="O41" s="35"/>
+      <c r="P41" s="35"/>
+      <c r="Q41" s="35"/>
+      <c r="R41" s="35"/>
+      <c r="S41" s="35"/>
+      <c r="T41" s="35"/>
+      <c r="U41" s="35"/>
+      <c r="V41" s="35"/>
+      <c r="W41" s="35"/>
+      <c r="X41" s="35"/>
+      <c r="Y41" s="35"/>
+      <c r="Z41" s="35"/>
+      <c r="AA41" s="35"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="37">
@@ -3090,30 +3083,30 @@
       <c r="E42" s="26">
         <v>2.0</v>
       </c>
-      <c r="F42" s="41">
-        <v>5.0</v>
-      </c>
-      <c r="G42" s="35"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="36"/>
-      <c r="K42" s="36"/>
-      <c r="L42" s="36"/>
-      <c r="M42" s="36"/>
-      <c r="N42" s="36"/>
-      <c r="O42" s="36"/>
-      <c r="P42" s="36"/>
-      <c r="Q42" s="36"/>
-      <c r="R42" s="36"/>
-      <c r="S42" s="36"/>
-      <c r="T42" s="36"/>
-      <c r="U42" s="36"/>
-      <c r="V42" s="36"/>
-      <c r="W42" s="36"/>
-      <c r="X42" s="36"/>
-      <c r="Y42" s="36"/>
-      <c r="Z42" s="36"/>
-      <c r="AA42" s="36"/>
+      <c r="F42" s="33">
+        <v>6.0</v>
+      </c>
+      <c r="G42" s="34"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="35"/>
+      <c r="M42" s="35"/>
+      <c r="N42" s="35"/>
+      <c r="O42" s="35"/>
+      <c r="P42" s="35"/>
+      <c r="Q42" s="35"/>
+      <c r="R42" s="35"/>
+      <c r="S42" s="35"/>
+      <c r="T42" s="35"/>
+      <c r="U42" s="35"/>
+      <c r="V42" s="35"/>
+      <c r="W42" s="35"/>
+      <c r="X42" s="35"/>
+      <c r="Y42" s="35"/>
+      <c r="Z42" s="35"/>
+      <c r="AA42" s="35"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="37">
@@ -3131,30 +3124,30 @@
       <c r="E43" s="26">
         <v>0.0</v>
       </c>
-      <c r="F43" s="41">
-        <v>7.0</v>
-      </c>
-      <c r="G43" s="35"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="36"/>
-      <c r="J43" s="36"/>
-      <c r="K43" s="36"/>
-      <c r="L43" s="36"/>
-      <c r="M43" s="36"/>
-      <c r="N43" s="36"/>
-      <c r="O43" s="36"/>
-      <c r="P43" s="36"/>
-      <c r="Q43" s="36"/>
-      <c r="R43" s="36"/>
-      <c r="S43" s="36"/>
-      <c r="T43" s="36"/>
-      <c r="U43" s="36"/>
-      <c r="V43" s="36"/>
-      <c r="W43" s="36"/>
-      <c r="X43" s="36"/>
-      <c r="Y43" s="36"/>
-      <c r="Z43" s="36"/>
-      <c r="AA43" s="36"/>
+      <c r="F43" s="33">
+        <v>8.0</v>
+      </c>
+      <c r="G43" s="34"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="35"/>
+      <c r="K43" s="35"/>
+      <c r="L43" s="35"/>
+      <c r="M43" s="35"/>
+      <c r="N43" s="35"/>
+      <c r="O43" s="35"/>
+      <c r="P43" s="35"/>
+      <c r="Q43" s="35"/>
+      <c r="R43" s="35"/>
+      <c r="S43" s="35"/>
+      <c r="T43" s="35"/>
+      <c r="U43" s="35"/>
+      <c r="V43" s="35"/>
+      <c r="W43" s="35"/>
+      <c r="X43" s="35"/>
+      <c r="Y43" s="35"/>
+      <c r="Z43" s="35"/>
+      <c r="AA43" s="35"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="30">
@@ -3173,30 +3166,30 @@
       <c r="E44" s="26">
         <v>1.0</v>
       </c>
-      <c r="F44" s="34">
-        <v>6.0</v>
-      </c>
-      <c r="G44" s="35"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="36"/>
-      <c r="J44" s="36"/>
-      <c r="K44" s="36"/>
-      <c r="L44" s="36"/>
-      <c r="M44" s="36"/>
-      <c r="N44" s="36"/>
-      <c r="O44" s="36"/>
-      <c r="P44" s="36"/>
-      <c r="Q44" s="36"/>
-      <c r="R44" s="36"/>
-      <c r="S44" s="36"/>
-      <c r="T44" s="36"/>
-      <c r="U44" s="36"/>
-      <c r="V44" s="36"/>
-      <c r="W44" s="36"/>
-      <c r="X44" s="36"/>
-      <c r="Y44" s="36"/>
-      <c r="Z44" s="36"/>
-      <c r="AA44" s="36"/>
+      <c r="F44" s="33">
+        <v>7.0</v>
+      </c>
+      <c r="G44" s="34"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="35"/>
+      <c r="K44" s="35"/>
+      <c r="L44" s="35"/>
+      <c r="M44" s="35"/>
+      <c r="N44" s="35"/>
+      <c r="O44" s="35"/>
+      <c r="P44" s="35"/>
+      <c r="Q44" s="35"/>
+      <c r="R44" s="35"/>
+      <c r="S44" s="35"/>
+      <c r="T44" s="35"/>
+      <c r="U44" s="35"/>
+      <c r="V44" s="35"/>
+      <c r="W44" s="35"/>
+      <c r="X44" s="35"/>
+      <c r="Y44" s="35"/>
+      <c r="Z44" s="35"/>
+      <c r="AA44" s="35"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="30">
@@ -3215,30 +3208,30 @@
       <c r="E45" s="26">
         <v>1.0</v>
       </c>
-      <c r="F45" s="34">
-        <v>6.0</v>
-      </c>
-      <c r="G45" s="35"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="36"/>
-      <c r="J45" s="36"/>
-      <c r="K45" s="36"/>
-      <c r="L45" s="36"/>
-      <c r="M45" s="36"/>
-      <c r="N45" s="36"/>
-      <c r="O45" s="36"/>
-      <c r="P45" s="36"/>
-      <c r="Q45" s="36"/>
-      <c r="R45" s="36"/>
-      <c r="S45" s="36"/>
-      <c r="T45" s="36"/>
-      <c r="U45" s="36"/>
-      <c r="V45" s="36"/>
-      <c r="W45" s="36"/>
-      <c r="X45" s="36"/>
-      <c r="Y45" s="36"/>
-      <c r="Z45" s="36"/>
-      <c r="AA45" s="36"/>
+      <c r="F45" s="33">
+        <v>7.0</v>
+      </c>
+      <c r="G45" s="34"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="35"/>
+      <c r="K45" s="35"/>
+      <c r="L45" s="35"/>
+      <c r="M45" s="35"/>
+      <c r="N45" s="35"/>
+      <c r="O45" s="35"/>
+      <c r="P45" s="35"/>
+      <c r="Q45" s="35"/>
+      <c r="R45" s="35"/>
+      <c r="S45" s="35"/>
+      <c r="T45" s="35"/>
+      <c r="U45" s="35"/>
+      <c r="V45" s="35"/>
+      <c r="W45" s="35"/>
+      <c r="X45" s="35"/>
+      <c r="Y45" s="35"/>
+      <c r="Z45" s="35"/>
+      <c r="AA45" s="35"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="30">
@@ -3257,30 +3250,30 @@
       <c r="E46" s="26">
         <v>2.0</v>
       </c>
-      <c r="F46" s="34">
-        <v>5.0</v>
-      </c>
-      <c r="G46" s="35"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="36"/>
-      <c r="K46" s="36"/>
-      <c r="L46" s="36"/>
-      <c r="M46" s="36"/>
-      <c r="N46" s="36"/>
-      <c r="O46" s="36"/>
-      <c r="P46" s="36"/>
-      <c r="Q46" s="36"/>
-      <c r="R46" s="36"/>
-      <c r="S46" s="36"/>
-      <c r="T46" s="36"/>
-      <c r="U46" s="36"/>
-      <c r="V46" s="36"/>
-      <c r="W46" s="36"/>
-      <c r="X46" s="36"/>
-      <c r="Y46" s="36"/>
-      <c r="Z46" s="36"/>
-      <c r="AA46" s="36"/>
+      <c r="F46" s="33">
+        <v>6.0</v>
+      </c>
+      <c r="G46" s="34"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="35"/>
+      <c r="L46" s="35"/>
+      <c r="M46" s="35"/>
+      <c r="N46" s="35"/>
+      <c r="O46" s="35"/>
+      <c r="P46" s="35"/>
+      <c r="Q46" s="35"/>
+      <c r="R46" s="35"/>
+      <c r="S46" s="35"/>
+      <c r="T46" s="35"/>
+      <c r="U46" s="35"/>
+      <c r="V46" s="35"/>
+      <c r="W46" s="35"/>
+      <c r="X46" s="35"/>
+      <c r="Y46" s="35"/>
+      <c r="Z46" s="35"/>
+      <c r="AA46" s="35"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="30">
@@ -3296,34 +3289,34 @@
       <c r="D47" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E47" s="33">
+      <c r="E47" s="36">
         <f>IF(D47&gt;0,COUNTIF(G47:Z47,"A"),"")</f>
         <v>0</v>
       </c>
-      <c r="F47" s="34">
-        <v>7.0</v>
-      </c>
-      <c r="G47" s="35"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="36"/>
-      <c r="J47" s="36"/>
-      <c r="K47" s="36"/>
-      <c r="L47" s="36"/>
-      <c r="M47" s="36"/>
-      <c r="N47" s="36"/>
-      <c r="O47" s="36"/>
-      <c r="P47" s="36"/>
-      <c r="Q47" s="36"/>
-      <c r="R47" s="36"/>
-      <c r="S47" s="36"/>
-      <c r="T47" s="36"/>
-      <c r="U47" s="36"/>
-      <c r="V47" s="36"/>
-      <c r="W47" s="36"/>
-      <c r="X47" s="36"/>
-      <c r="Y47" s="36"/>
-      <c r="Z47" s="36"/>
-      <c r="AA47" s="36"/>
+      <c r="F47" s="33">
+        <v>8.0</v>
+      </c>
+      <c r="G47" s="34"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="35"/>
+      <c r="K47" s="35"/>
+      <c r="L47" s="35"/>
+      <c r="M47" s="35"/>
+      <c r="N47" s="35"/>
+      <c r="O47" s="35"/>
+      <c r="P47" s="35"/>
+      <c r="Q47" s="35"/>
+      <c r="R47" s="35"/>
+      <c r="S47" s="35"/>
+      <c r="T47" s="35"/>
+      <c r="U47" s="35"/>
+      <c r="V47" s="35"/>
+      <c r="W47" s="35"/>
+      <c r="X47" s="35"/>
+      <c r="Y47" s="35"/>
+      <c r="Z47" s="35"/>
+      <c r="AA47" s="35"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="30">
@@ -3342,30 +3335,30 @@
       <c r="E48" s="26">
         <v>1.0</v>
       </c>
-      <c r="F48" s="34">
-        <v>6.0</v>
-      </c>
-      <c r="G48" s="35"/>
-      <c r="H48" s="36"/>
-      <c r="I48" s="36"/>
-      <c r="J48" s="36"/>
-      <c r="K48" s="36"/>
-      <c r="L48" s="36"/>
-      <c r="M48" s="36"/>
-      <c r="N48" s="36"/>
-      <c r="O48" s="36"/>
-      <c r="P48" s="36"/>
-      <c r="Q48" s="36"/>
-      <c r="R48" s="36"/>
-      <c r="S48" s="36"/>
-      <c r="T48" s="36"/>
-      <c r="U48" s="36"/>
-      <c r="V48" s="36"/>
-      <c r="W48" s="36"/>
-      <c r="X48" s="36"/>
-      <c r="Y48" s="36"/>
-      <c r="Z48" s="36"/>
-      <c r="AA48" s="36"/>
+      <c r="F48" s="33">
+        <v>7.0</v>
+      </c>
+      <c r="G48" s="34"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="35"/>
+      <c r="K48" s="35"/>
+      <c r="L48" s="35"/>
+      <c r="M48" s="35"/>
+      <c r="N48" s="35"/>
+      <c r="O48" s="35"/>
+      <c r="P48" s="35"/>
+      <c r="Q48" s="35"/>
+      <c r="R48" s="35"/>
+      <c r="S48" s="35"/>
+      <c r="T48" s="35"/>
+      <c r="U48" s="35"/>
+      <c r="V48" s="35"/>
+      <c r="W48" s="35"/>
+      <c r="X48" s="35"/>
+      <c r="Y48" s="35"/>
+      <c r="Z48" s="35"/>
+      <c r="AA48" s="35"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="30">
@@ -3384,30 +3377,30 @@
       <c r="E49" s="26">
         <v>2.0</v>
       </c>
-      <c r="F49" s="34">
-        <v>5.0</v>
-      </c>
-      <c r="G49" s="35"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
-      <c r="N49" s="36"/>
-      <c r="O49" s="36"/>
-      <c r="P49" s="36"/>
-      <c r="Q49" s="36"/>
-      <c r="R49" s="36"/>
-      <c r="S49" s="36"/>
-      <c r="T49" s="36"/>
-      <c r="U49" s="36"/>
-      <c r="V49" s="36"/>
-      <c r="W49" s="36"/>
-      <c r="X49" s="36"/>
-      <c r="Y49" s="36"/>
-      <c r="Z49" s="36"/>
-      <c r="AA49" s="36"/>
+      <c r="F49" s="33">
+        <v>6.0</v>
+      </c>
+      <c r="G49" s="34"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="35"/>
+      <c r="M49" s="35"/>
+      <c r="N49" s="35"/>
+      <c r="O49" s="35"/>
+      <c r="P49" s="35"/>
+      <c r="Q49" s="35"/>
+      <c r="R49" s="35"/>
+      <c r="S49" s="35"/>
+      <c r="T49" s="35"/>
+      <c r="U49" s="35"/>
+      <c r="V49" s="35"/>
+      <c r="W49" s="35"/>
+      <c r="X49" s="35"/>
+      <c r="Y49" s="35"/>
+      <c r="Z49" s="35"/>
+      <c r="AA49" s="35"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="30">
@@ -3426,30 +3419,30 @@
       <c r="E50" s="26">
         <v>1.0</v>
       </c>
-      <c r="F50" s="34">
-        <v>6.0</v>
-      </c>
-      <c r="G50" s="35"/>
-      <c r="H50" s="36"/>
-      <c r="I50" s="36"/>
-      <c r="J50" s="36"/>
-      <c r="K50" s="36"/>
-      <c r="L50" s="36"/>
-      <c r="M50" s="36"/>
-      <c r="N50" s="36"/>
-      <c r="O50" s="36"/>
-      <c r="P50" s="36"/>
-      <c r="Q50" s="36"/>
-      <c r="R50" s="36"/>
-      <c r="S50" s="36"/>
-      <c r="T50" s="36"/>
-      <c r="U50" s="36"/>
-      <c r="V50" s="36"/>
-      <c r="W50" s="36"/>
-      <c r="X50" s="36"/>
-      <c r="Y50" s="36"/>
-      <c r="Z50" s="36"/>
-      <c r="AA50" s="36"/>
+      <c r="F50" s="33">
+        <v>7.0</v>
+      </c>
+      <c r="G50" s="34"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="35"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="35"/>
+      <c r="M50" s="35"/>
+      <c r="N50" s="35"/>
+      <c r="O50" s="35"/>
+      <c r="P50" s="35"/>
+      <c r="Q50" s="35"/>
+      <c r="R50" s="35"/>
+      <c r="S50" s="35"/>
+      <c r="T50" s="35"/>
+      <c r="U50" s="35"/>
+      <c r="V50" s="35"/>
+      <c r="W50" s="35"/>
+      <c r="X50" s="35"/>
+      <c r="Y50" s="35"/>
+      <c r="Z50" s="35"/>
+      <c r="AA50" s="35"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="30">
@@ -3465,34 +3458,33 @@
       <c r="D51" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E51" s="33">
-        <f t="shared" ref="E51:E52" si="4">IF(D51&gt;0,COUNTIF(G51:Z51,"A"),"")</f>
-        <v>0</v>
-      </c>
-      <c r="F51" s="34">
+      <c r="E51" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="F51" s="33">
         <v>7.0</v>
       </c>
-      <c r="G51" s="35"/>
-      <c r="H51" s="36"/>
-      <c r="I51" s="36"/>
-      <c r="J51" s="36"/>
-      <c r="K51" s="36"/>
-      <c r="L51" s="36"/>
-      <c r="M51" s="36"/>
-      <c r="N51" s="36"/>
-      <c r="O51" s="36"/>
-      <c r="P51" s="36"/>
-      <c r="Q51" s="36"/>
-      <c r="R51" s="36"/>
-      <c r="S51" s="36"/>
-      <c r="T51" s="36"/>
-      <c r="U51" s="36"/>
-      <c r="V51" s="36"/>
-      <c r="W51" s="36"/>
-      <c r="X51" s="36"/>
-      <c r="Y51" s="36"/>
-      <c r="Z51" s="36"/>
-      <c r="AA51" s="36"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="35"/>
+      <c r="K51" s="35"/>
+      <c r="L51" s="35"/>
+      <c r="M51" s="35"/>
+      <c r="N51" s="35"/>
+      <c r="O51" s="35"/>
+      <c r="P51" s="35"/>
+      <c r="Q51" s="35"/>
+      <c r="R51" s="35"/>
+      <c r="S51" s="35"/>
+      <c r="T51" s="35"/>
+      <c r="U51" s="35"/>
+      <c r="V51" s="35"/>
+      <c r="W51" s="35"/>
+      <c r="X51" s="35"/>
+      <c r="Y51" s="35"/>
+      <c r="Z51" s="35"/>
+      <c r="AA51" s="35"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="30">
@@ -3508,34 +3500,34 @@
       <c r="D52" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E52" s="33">
-        <f t="shared" si="4"/>
+      <c r="E52" s="36">
+        <f>IF(D52&gt;0,COUNTIF(G52:Z52,"A"),"")</f>
         <v>0</v>
       </c>
-      <c r="F52" s="34">
-        <v>7.0</v>
-      </c>
-      <c r="G52" s="35"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="36"/>
-      <c r="N52" s="36"/>
-      <c r="O52" s="36"/>
-      <c r="P52" s="36"/>
-      <c r="Q52" s="36"/>
-      <c r="R52" s="36"/>
-      <c r="S52" s="36"/>
-      <c r="T52" s="36"/>
-      <c r="U52" s="36"/>
-      <c r="V52" s="36"/>
-      <c r="W52" s="36"/>
-      <c r="X52" s="36"/>
-      <c r="Y52" s="36"/>
-      <c r="Z52" s="36"/>
-      <c r="AA52" s="36"/>
+      <c r="F52" s="33">
+        <v>8.0</v>
+      </c>
+      <c r="G52" s="34"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="35"/>
+      <c r="J52" s="35"/>
+      <c r="K52" s="35"/>
+      <c r="L52" s="35"/>
+      <c r="M52" s="35"/>
+      <c r="N52" s="35"/>
+      <c r="O52" s="35"/>
+      <c r="P52" s="35"/>
+      <c r="Q52" s="35"/>
+      <c r="R52" s="35"/>
+      <c r="S52" s="35"/>
+      <c r="T52" s="35"/>
+      <c r="U52" s="35"/>
+      <c r="V52" s="35"/>
+      <c r="W52" s="35"/>
+      <c r="X52" s="35"/>
+      <c r="Y52" s="35"/>
+      <c r="Z52" s="35"/>
+      <c r="AA52" s="35"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="30">
@@ -3554,30 +3546,30 @@
       <c r="E53" s="26">
         <v>2.0</v>
       </c>
-      <c r="F53" s="34">
-        <v>5.0</v>
-      </c>
-      <c r="G53" s="35"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="36"/>
-      <c r="M53" s="36"/>
-      <c r="N53" s="36"/>
-      <c r="O53" s="36"/>
-      <c r="P53" s="36"/>
-      <c r="Q53" s="36"/>
-      <c r="R53" s="36"/>
-      <c r="S53" s="36"/>
-      <c r="T53" s="36"/>
-      <c r="U53" s="36"/>
-      <c r="V53" s="36"/>
-      <c r="W53" s="36"/>
-      <c r="X53" s="36"/>
-      <c r="Y53" s="36"/>
-      <c r="Z53" s="36"/>
-      <c r="AA53" s="36"/>
+      <c r="F53" s="33">
+        <v>6.0</v>
+      </c>
+      <c r="G53" s="34"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="35"/>
+      <c r="L53" s="35"/>
+      <c r="M53" s="35"/>
+      <c r="N53" s="35"/>
+      <c r="O53" s="35"/>
+      <c r="P53" s="35"/>
+      <c r="Q53" s="35"/>
+      <c r="R53" s="35"/>
+      <c r="S53" s="35"/>
+      <c r="T53" s="35"/>
+      <c r="U53" s="35"/>
+      <c r="V53" s="35"/>
+      <c r="W53" s="35"/>
+      <c r="X53" s="35"/>
+      <c r="Y53" s="35"/>
+      <c r="Z53" s="35"/>
+      <c r="AA53" s="35"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="30">
@@ -3596,30 +3588,30 @@
       <c r="E54" s="26">
         <v>2.0</v>
       </c>
-      <c r="F54" s="34">
-        <v>5.0</v>
-      </c>
-      <c r="G54" s="35"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="36"/>
-      <c r="M54" s="36"/>
-      <c r="N54" s="36"/>
-      <c r="O54" s="36"/>
-      <c r="P54" s="36"/>
-      <c r="Q54" s="36"/>
-      <c r="R54" s="36"/>
-      <c r="S54" s="36"/>
-      <c r="T54" s="36"/>
-      <c r="U54" s="36"/>
-      <c r="V54" s="36"/>
-      <c r="W54" s="36"/>
-      <c r="X54" s="36"/>
-      <c r="Y54" s="36"/>
-      <c r="Z54" s="36"/>
-      <c r="AA54" s="36"/>
+      <c r="F54" s="33">
+        <v>6.0</v>
+      </c>
+      <c r="G54" s="34"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="35"/>
+      <c r="J54" s="35"/>
+      <c r="K54" s="35"/>
+      <c r="L54" s="35"/>
+      <c r="M54" s="35"/>
+      <c r="N54" s="35"/>
+      <c r="O54" s="35"/>
+      <c r="P54" s="35"/>
+      <c r="Q54" s="35"/>
+      <c r="R54" s="35"/>
+      <c r="S54" s="35"/>
+      <c r="T54" s="35"/>
+      <c r="U54" s="35"/>
+      <c r="V54" s="35"/>
+      <c r="W54" s="35"/>
+      <c r="X54" s="35"/>
+      <c r="Y54" s="35"/>
+      <c r="Z54" s="35"/>
+      <c r="AA54" s="35"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="30">
@@ -3638,30 +3630,30 @@
       <c r="E55" s="26">
         <v>2.0</v>
       </c>
-      <c r="F55" s="34">
-        <v>5.0</v>
-      </c>
-      <c r="G55" s="35"/>
-      <c r="H55" s="36"/>
-      <c r="I55" s="36"/>
-      <c r="J55" s="36"/>
-      <c r="K55" s="36"/>
-      <c r="L55" s="36"/>
-      <c r="M55" s="36"/>
-      <c r="N55" s="36"/>
-      <c r="O55" s="36"/>
-      <c r="P55" s="36"/>
-      <c r="Q55" s="36"/>
-      <c r="R55" s="36"/>
-      <c r="S55" s="36"/>
-      <c r="T55" s="36"/>
-      <c r="U55" s="36"/>
-      <c r="V55" s="36"/>
-      <c r="W55" s="36"/>
-      <c r="X55" s="36"/>
-      <c r="Y55" s="36"/>
-      <c r="Z55" s="36"/>
-      <c r="AA55" s="36"/>
+      <c r="F55" s="33">
+        <v>6.0</v>
+      </c>
+      <c r="G55" s="34"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="35"/>
+      <c r="J55" s="35"/>
+      <c r="K55" s="35"/>
+      <c r="L55" s="35"/>
+      <c r="M55" s="35"/>
+      <c r="N55" s="35"/>
+      <c r="O55" s="35"/>
+      <c r="P55" s="35"/>
+      <c r="Q55" s="35"/>
+      <c r="R55" s="35"/>
+      <c r="S55" s="35"/>
+      <c r="T55" s="35"/>
+      <c r="U55" s="35"/>
+      <c r="V55" s="35"/>
+      <c r="W55" s="35"/>
+      <c r="X55" s="35"/>
+      <c r="Y55" s="35"/>
+      <c r="Z55" s="35"/>
+      <c r="AA55" s="35"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="30">
@@ -3680,30 +3672,30 @@
       <c r="E56" s="26">
         <v>2.0</v>
       </c>
-      <c r="F56" s="34">
-        <v>5.0</v>
-      </c>
-      <c r="G56" s="35"/>
-      <c r="H56" s="36"/>
-      <c r="I56" s="36"/>
-      <c r="J56" s="36"/>
-      <c r="K56" s="36"/>
-      <c r="L56" s="36"/>
-      <c r="M56" s="36"/>
-      <c r="N56" s="36"/>
-      <c r="O56" s="36"/>
-      <c r="P56" s="36"/>
-      <c r="Q56" s="36"/>
-      <c r="R56" s="36"/>
-      <c r="S56" s="36"/>
-      <c r="T56" s="36"/>
-      <c r="U56" s="36"/>
-      <c r="V56" s="36"/>
-      <c r="W56" s="36"/>
-      <c r="X56" s="36"/>
-      <c r="Y56" s="36"/>
-      <c r="Z56" s="36"/>
-      <c r="AA56" s="36"/>
+      <c r="F56" s="33">
+        <v>6.0</v>
+      </c>
+      <c r="G56" s="34"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="35"/>
+      <c r="J56" s="35"/>
+      <c r="K56" s="35"/>
+      <c r="L56" s="35"/>
+      <c r="M56" s="35"/>
+      <c r="N56" s="35"/>
+      <c r="O56" s="35"/>
+      <c r="P56" s="35"/>
+      <c r="Q56" s="35"/>
+      <c r="R56" s="35"/>
+      <c r="S56" s="35"/>
+      <c r="T56" s="35"/>
+      <c r="U56" s="35"/>
+      <c r="V56" s="35"/>
+      <c r="W56" s="35"/>
+      <c r="X56" s="35"/>
+      <c r="Y56" s="35"/>
+      <c r="Z56" s="35"/>
+      <c r="AA56" s="35"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="30">
@@ -3722,30 +3714,30 @@
       <c r="E57" s="26">
         <v>2.0</v>
       </c>
-      <c r="F57" s="34">
-        <v>5.0</v>
-      </c>
-      <c r="G57" s="35"/>
-      <c r="H57" s="36"/>
-      <c r="I57" s="36"/>
-      <c r="J57" s="36"/>
-      <c r="K57" s="36"/>
-      <c r="L57" s="36"/>
-      <c r="M57" s="36"/>
-      <c r="N57" s="36"/>
-      <c r="O57" s="36"/>
-      <c r="P57" s="36"/>
-      <c r="Q57" s="36"/>
-      <c r="R57" s="36"/>
-      <c r="S57" s="36"/>
-      <c r="T57" s="36"/>
-      <c r="U57" s="36"/>
-      <c r="V57" s="36"/>
-      <c r="W57" s="36"/>
-      <c r="X57" s="36"/>
-      <c r="Y57" s="36"/>
-      <c r="Z57" s="36"/>
-      <c r="AA57" s="36"/>
+      <c r="F57" s="33">
+        <v>6.0</v>
+      </c>
+      <c r="G57" s="34"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="35"/>
+      <c r="J57" s="35"/>
+      <c r="K57" s="35"/>
+      <c r="L57" s="35"/>
+      <c r="M57" s="35"/>
+      <c r="N57" s="35"/>
+      <c r="O57" s="35"/>
+      <c r="P57" s="35"/>
+      <c r="Q57" s="35"/>
+      <c r="R57" s="35"/>
+      <c r="S57" s="35"/>
+      <c r="T57" s="35"/>
+      <c r="U57" s="35"/>
+      <c r="V57" s="35"/>
+      <c r="W57" s="35"/>
+      <c r="X57" s="35"/>
+      <c r="Y57" s="35"/>
+      <c r="Z57" s="35"/>
+      <c r="AA57" s="35"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="30">
@@ -3764,30 +3756,30 @@
       <c r="E58" s="26">
         <v>1.0</v>
       </c>
-      <c r="F58" s="34">
-        <v>6.0</v>
-      </c>
-      <c r="G58" s="35"/>
-      <c r="H58" s="36"/>
-      <c r="I58" s="36"/>
-      <c r="J58" s="36"/>
-      <c r="K58" s="36"/>
-      <c r="L58" s="36"/>
-      <c r="M58" s="36"/>
-      <c r="N58" s="36"/>
-      <c r="O58" s="36"/>
-      <c r="P58" s="36"/>
-      <c r="Q58" s="36"/>
-      <c r="R58" s="36"/>
-      <c r="S58" s="36"/>
-      <c r="T58" s="36"/>
-      <c r="U58" s="36"/>
-      <c r="V58" s="36"/>
-      <c r="W58" s="36"/>
-      <c r="X58" s="36"/>
-      <c r="Y58" s="36"/>
-      <c r="Z58" s="36"/>
-      <c r="AA58" s="36"/>
+      <c r="F58" s="33">
+        <v>7.0</v>
+      </c>
+      <c r="G58" s="34"/>
+      <c r="H58" s="35"/>
+      <c r="I58" s="35"/>
+      <c r="J58" s="35"/>
+      <c r="K58" s="35"/>
+      <c r="L58" s="35"/>
+      <c r="M58" s="35"/>
+      <c r="N58" s="35"/>
+      <c r="O58" s="35"/>
+      <c r="P58" s="35"/>
+      <c r="Q58" s="35"/>
+      <c r="R58" s="35"/>
+      <c r="S58" s="35"/>
+      <c r="T58" s="35"/>
+      <c r="U58" s="35"/>
+      <c r="V58" s="35"/>
+      <c r="W58" s="35"/>
+      <c r="X58" s="35"/>
+      <c r="Y58" s="35"/>
+      <c r="Z58" s="35"/>
+      <c r="AA58" s="35"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="30">
@@ -3803,34 +3795,34 @@
       <c r="D59" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E59" s="33">
+      <c r="E59" s="36">
         <f>IF(D59&gt;0,COUNTIF(G59:Z59,"A"),"")</f>
         <v>0</v>
       </c>
-      <c r="F59" s="34">
-        <v>7.0</v>
-      </c>
-      <c r="G59" s="35"/>
-      <c r="H59" s="36"/>
-      <c r="I59" s="36"/>
-      <c r="J59" s="36"/>
-      <c r="K59" s="36"/>
-      <c r="L59" s="36"/>
-      <c r="M59" s="36"/>
-      <c r="N59" s="36"/>
-      <c r="O59" s="36"/>
-      <c r="P59" s="36"/>
-      <c r="Q59" s="36"/>
-      <c r="R59" s="36"/>
-      <c r="S59" s="36"/>
-      <c r="T59" s="36"/>
-      <c r="U59" s="36"/>
-      <c r="V59" s="36"/>
-      <c r="W59" s="36"/>
-      <c r="X59" s="36"/>
-      <c r="Y59" s="36"/>
-      <c r="Z59" s="36"/>
-      <c r="AA59" s="36"/>
+      <c r="F59" s="33">
+        <v>8.0</v>
+      </c>
+      <c r="G59" s="34"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="35"/>
+      <c r="J59" s="35"/>
+      <c r="K59" s="35"/>
+      <c r="L59" s="35"/>
+      <c r="M59" s="35"/>
+      <c r="N59" s="35"/>
+      <c r="O59" s="35"/>
+      <c r="P59" s="35"/>
+      <c r="Q59" s="35"/>
+      <c r="R59" s="35"/>
+      <c r="S59" s="35"/>
+      <c r="T59" s="35"/>
+      <c r="U59" s="35"/>
+      <c r="V59" s="35"/>
+      <c r="W59" s="35"/>
+      <c r="X59" s="35"/>
+      <c r="Y59" s="35"/>
+      <c r="Z59" s="35"/>
+      <c r="AA59" s="35"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="30">
@@ -3849,30 +3841,30 @@
       <c r="E60" s="26">
         <v>1.0</v>
       </c>
-      <c r="F60" s="34">
-        <v>6.0</v>
-      </c>
-      <c r="G60" s="35"/>
-      <c r="H60" s="36"/>
-      <c r="I60" s="36"/>
-      <c r="J60" s="36"/>
-      <c r="K60" s="36"/>
-      <c r="L60" s="36"/>
-      <c r="M60" s="36"/>
-      <c r="N60" s="36"/>
-      <c r="O60" s="36"/>
-      <c r="P60" s="36"/>
-      <c r="Q60" s="36"/>
-      <c r="R60" s="36"/>
-      <c r="S60" s="36"/>
-      <c r="T60" s="36"/>
-      <c r="U60" s="36"/>
-      <c r="V60" s="36"/>
-      <c r="W60" s="36"/>
-      <c r="X60" s="36"/>
-      <c r="Y60" s="36"/>
-      <c r="Z60" s="36"/>
-      <c r="AA60" s="36"/>
+      <c r="F60" s="33">
+        <v>7.0</v>
+      </c>
+      <c r="G60" s="34"/>
+      <c r="H60" s="35"/>
+      <c r="I60" s="35"/>
+      <c r="J60" s="35"/>
+      <c r="K60" s="35"/>
+      <c r="L60" s="35"/>
+      <c r="M60" s="35"/>
+      <c r="N60" s="35"/>
+      <c r="O60" s="35"/>
+      <c r="P60" s="35"/>
+      <c r="Q60" s="35"/>
+      <c r="R60" s="35"/>
+      <c r="S60" s="35"/>
+      <c r="T60" s="35"/>
+      <c r="U60" s="35"/>
+      <c r="V60" s="35"/>
+      <c r="W60" s="35"/>
+      <c r="X60" s="35"/>
+      <c r="Y60" s="35"/>
+      <c r="Z60" s="35"/>
+      <c r="AA60" s="35"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="30">
@@ -3891,30 +3883,30 @@
       <c r="E61" s="26">
         <v>1.0</v>
       </c>
-      <c r="F61" s="34">
-        <v>6.0</v>
-      </c>
-      <c r="G61" s="35"/>
-      <c r="H61" s="36"/>
-      <c r="I61" s="36"/>
-      <c r="J61" s="36"/>
-      <c r="K61" s="36"/>
-      <c r="L61" s="36"/>
-      <c r="M61" s="36"/>
-      <c r="N61" s="36"/>
-      <c r="O61" s="36"/>
-      <c r="P61" s="36"/>
-      <c r="Q61" s="36"/>
-      <c r="R61" s="36"/>
-      <c r="S61" s="36"/>
-      <c r="T61" s="36"/>
-      <c r="U61" s="36"/>
-      <c r="V61" s="36"/>
-      <c r="W61" s="36"/>
-      <c r="X61" s="36"/>
-      <c r="Y61" s="36"/>
-      <c r="Z61" s="36"/>
-      <c r="AA61" s="36"/>
+      <c r="F61" s="33">
+        <v>7.0</v>
+      </c>
+      <c r="G61" s="34"/>
+      <c r="H61" s="35"/>
+      <c r="I61" s="35"/>
+      <c r="J61" s="35"/>
+      <c r="K61" s="35"/>
+      <c r="L61" s="35"/>
+      <c r="M61" s="35"/>
+      <c r="N61" s="35"/>
+      <c r="O61" s="35"/>
+      <c r="P61" s="35"/>
+      <c r="Q61" s="35"/>
+      <c r="R61" s="35"/>
+      <c r="S61" s="35"/>
+      <c r="T61" s="35"/>
+      <c r="U61" s="35"/>
+      <c r="V61" s="35"/>
+      <c r="W61" s="35"/>
+      <c r="X61" s="35"/>
+      <c r="Y61" s="35"/>
+      <c r="Z61" s="35"/>
+      <c r="AA61" s="35"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="30">
@@ -3930,34 +3922,34 @@
       <c r="D62" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E62" s="33">
+      <c r="E62" s="36">
         <f>IF(D62&gt;0,COUNTIF(G62:Z62,"A"),"")</f>
         <v>0</v>
       </c>
-      <c r="F62" s="34">
-        <v>7.0</v>
-      </c>
-      <c r="G62" s="35"/>
-      <c r="H62" s="36"/>
-      <c r="I62" s="36"/>
-      <c r="J62" s="36"/>
-      <c r="K62" s="36"/>
-      <c r="L62" s="36"/>
-      <c r="M62" s="36"/>
-      <c r="N62" s="36"/>
-      <c r="O62" s="36"/>
-      <c r="P62" s="36"/>
-      <c r="Q62" s="36"/>
-      <c r="R62" s="36"/>
-      <c r="S62" s="36"/>
-      <c r="T62" s="36"/>
-      <c r="U62" s="36"/>
-      <c r="V62" s="36"/>
-      <c r="W62" s="36"/>
-      <c r="X62" s="36"/>
-      <c r="Y62" s="36"/>
-      <c r="Z62" s="36"/>
-      <c r="AA62" s="36"/>
+      <c r="F62" s="33">
+        <v>8.0</v>
+      </c>
+      <c r="G62" s="34"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="35"/>
+      <c r="J62" s="35"/>
+      <c r="K62" s="35"/>
+      <c r="L62" s="35"/>
+      <c r="M62" s="35"/>
+      <c r="N62" s="35"/>
+      <c r="O62" s="35"/>
+      <c r="P62" s="35"/>
+      <c r="Q62" s="35"/>
+      <c r="R62" s="35"/>
+      <c r="S62" s="35"/>
+      <c r="T62" s="35"/>
+      <c r="U62" s="35"/>
+      <c r="V62" s="35"/>
+      <c r="W62" s="35"/>
+      <c r="X62" s="35"/>
+      <c r="Y62" s="35"/>
+      <c r="Z62" s="35"/>
+      <c r="AA62" s="35"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="30">
@@ -3976,30 +3968,30 @@
       <c r="E63" s="26">
         <v>1.0</v>
       </c>
-      <c r="F63" s="34">
-        <v>6.0</v>
-      </c>
-      <c r="G63" s="35"/>
-      <c r="H63" s="36"/>
-      <c r="I63" s="36"/>
-      <c r="J63" s="36"/>
-      <c r="K63" s="36"/>
-      <c r="L63" s="36"/>
-      <c r="M63" s="36"/>
-      <c r="N63" s="36"/>
-      <c r="O63" s="36"/>
-      <c r="P63" s="36"/>
-      <c r="Q63" s="36"/>
-      <c r="R63" s="36"/>
-      <c r="S63" s="36"/>
-      <c r="T63" s="36"/>
-      <c r="U63" s="36"/>
-      <c r="V63" s="36"/>
-      <c r="W63" s="36"/>
-      <c r="X63" s="36"/>
-      <c r="Y63" s="36"/>
-      <c r="Z63" s="36"/>
-      <c r="AA63" s="36"/>
+      <c r="F63" s="33">
+        <v>7.0</v>
+      </c>
+      <c r="G63" s="34"/>
+      <c r="H63" s="35"/>
+      <c r="I63" s="35"/>
+      <c r="J63" s="35"/>
+      <c r="K63" s="35"/>
+      <c r="L63" s="35"/>
+      <c r="M63" s="35"/>
+      <c r="N63" s="35"/>
+      <c r="O63" s="35"/>
+      <c r="P63" s="35"/>
+      <c r="Q63" s="35"/>
+      <c r="R63" s="35"/>
+      <c r="S63" s="35"/>
+      <c r="T63" s="35"/>
+      <c r="U63" s="35"/>
+      <c r="V63" s="35"/>
+      <c r="W63" s="35"/>
+      <c r="X63" s="35"/>
+      <c r="Y63" s="35"/>
+      <c r="Z63" s="35"/>
+      <c r="AA63" s="35"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="30">
@@ -4018,30 +4010,30 @@
       <c r="E64" s="26">
         <v>1.0</v>
       </c>
-      <c r="F64" s="34">
-        <v>6.0</v>
-      </c>
-      <c r="G64" s="35"/>
-      <c r="H64" s="36"/>
-      <c r="I64" s="36"/>
-      <c r="J64" s="36"/>
-      <c r="K64" s="36"/>
-      <c r="L64" s="36"/>
-      <c r="M64" s="36"/>
-      <c r="N64" s="36"/>
-      <c r="O64" s="36"/>
-      <c r="P64" s="36"/>
-      <c r="Q64" s="36"/>
-      <c r="R64" s="36"/>
-      <c r="S64" s="36"/>
-      <c r="T64" s="36"/>
-      <c r="U64" s="36"/>
-      <c r="V64" s="36"/>
-      <c r="W64" s="36"/>
-      <c r="X64" s="36"/>
-      <c r="Y64" s="36"/>
-      <c r="Z64" s="36"/>
-      <c r="AA64" s="36"/>
+      <c r="F64" s="33">
+        <v>7.0</v>
+      </c>
+      <c r="G64" s="34"/>
+      <c r="H64" s="35"/>
+      <c r="I64" s="35"/>
+      <c r="J64" s="35"/>
+      <c r="K64" s="35"/>
+      <c r="L64" s="35"/>
+      <c r="M64" s="35"/>
+      <c r="N64" s="35"/>
+      <c r="O64" s="35"/>
+      <c r="P64" s="35"/>
+      <c r="Q64" s="35"/>
+      <c r="R64" s="35"/>
+      <c r="S64" s="35"/>
+      <c r="T64" s="35"/>
+      <c r="U64" s="35"/>
+      <c r="V64" s="35"/>
+      <c r="W64" s="35"/>
+      <c r="X64" s="35"/>
+      <c r="Y64" s="35"/>
+      <c r="Z64" s="35"/>
+      <c r="AA64" s="35"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="30">
@@ -4057,34 +4049,34 @@
       <c r="D65" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E65" s="33">
+      <c r="E65" s="36">
         <f>IF(D65&gt;0,COUNTIF(G65:Z65,"A"),"")</f>
         <v>0</v>
       </c>
-      <c r="F65" s="34">
-        <v>7.0</v>
-      </c>
-      <c r="G65" s="35"/>
-      <c r="H65" s="36"/>
-      <c r="I65" s="36"/>
-      <c r="J65" s="36"/>
-      <c r="K65" s="36"/>
-      <c r="L65" s="36"/>
-      <c r="M65" s="36"/>
-      <c r="N65" s="36"/>
-      <c r="O65" s="36"/>
-      <c r="P65" s="36"/>
-      <c r="Q65" s="36"/>
-      <c r="R65" s="36"/>
-      <c r="S65" s="36"/>
-      <c r="T65" s="36"/>
-      <c r="U65" s="36"/>
-      <c r="V65" s="36"/>
-      <c r="W65" s="36"/>
-      <c r="X65" s="36"/>
-      <c r="Y65" s="36"/>
-      <c r="Z65" s="36"/>
-      <c r="AA65" s="36"/>
+      <c r="F65" s="33">
+        <v>8.0</v>
+      </c>
+      <c r="G65" s="34"/>
+      <c r="H65" s="35"/>
+      <c r="I65" s="35"/>
+      <c r="J65" s="35"/>
+      <c r="K65" s="35"/>
+      <c r="L65" s="35"/>
+      <c r="M65" s="35"/>
+      <c r="N65" s="35"/>
+      <c r="O65" s="35"/>
+      <c r="P65" s="35"/>
+      <c r="Q65" s="35"/>
+      <c r="R65" s="35"/>
+      <c r="S65" s="35"/>
+      <c r="T65" s="35"/>
+      <c r="U65" s="35"/>
+      <c r="V65" s="35"/>
+      <c r="W65" s="35"/>
+      <c r="X65" s="35"/>
+      <c r="Y65" s="35"/>
+      <c r="Z65" s="35"/>
+      <c r="AA65" s="35"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="30">
@@ -4103,30 +4095,30 @@
       <c r="E66" s="26">
         <v>2.0</v>
       </c>
-      <c r="F66" s="34">
-        <v>5.0</v>
-      </c>
-      <c r="G66" s="35"/>
-      <c r="H66" s="36"/>
-      <c r="I66" s="36"/>
-      <c r="J66" s="36"/>
-      <c r="K66" s="36"/>
-      <c r="L66" s="36"/>
-      <c r="M66" s="36"/>
-      <c r="N66" s="36"/>
-      <c r="O66" s="36"/>
-      <c r="P66" s="36"/>
-      <c r="Q66" s="36"/>
-      <c r="R66" s="36"/>
-      <c r="S66" s="36"/>
-      <c r="T66" s="36"/>
-      <c r="U66" s="36"/>
-      <c r="V66" s="36"/>
-      <c r="W66" s="36"/>
-      <c r="X66" s="36"/>
-      <c r="Y66" s="36"/>
-      <c r="Z66" s="36"/>
-      <c r="AA66" s="36"/>
+      <c r="F66" s="33">
+        <v>6.0</v>
+      </c>
+      <c r="G66" s="34"/>
+      <c r="H66" s="35"/>
+      <c r="I66" s="35"/>
+      <c r="J66" s="35"/>
+      <c r="K66" s="35"/>
+      <c r="L66" s="35"/>
+      <c r="M66" s="35"/>
+      <c r="N66" s="35"/>
+      <c r="O66" s="35"/>
+      <c r="P66" s="35"/>
+      <c r="Q66" s="35"/>
+      <c r="R66" s="35"/>
+      <c r="S66" s="35"/>
+      <c r="T66" s="35"/>
+      <c r="U66" s="35"/>
+      <c r="V66" s="35"/>
+      <c r="W66" s="35"/>
+      <c r="X66" s="35"/>
+      <c r="Y66" s="35"/>
+      <c r="Z66" s="35"/>
+      <c r="AA66" s="35"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="30">
@@ -4145,30 +4137,30 @@
       <c r="E67" s="26">
         <v>1.0</v>
       </c>
-      <c r="F67" s="34">
-        <v>6.0</v>
-      </c>
-      <c r="G67" s="35"/>
-      <c r="H67" s="36"/>
-      <c r="I67" s="36"/>
-      <c r="J67" s="36"/>
-      <c r="K67" s="36"/>
-      <c r="L67" s="36"/>
-      <c r="M67" s="36"/>
-      <c r="N67" s="36"/>
-      <c r="O67" s="36"/>
-      <c r="P67" s="36"/>
-      <c r="Q67" s="36"/>
-      <c r="R67" s="36"/>
-      <c r="S67" s="36"/>
-      <c r="T67" s="36"/>
-      <c r="U67" s="36"/>
-      <c r="V67" s="36"/>
-      <c r="W67" s="36"/>
-      <c r="X67" s="36"/>
-      <c r="Y67" s="36"/>
-      <c r="Z67" s="36"/>
-      <c r="AA67" s="36"/>
+      <c r="F67" s="33">
+        <v>7.0</v>
+      </c>
+      <c r="G67" s="34"/>
+      <c r="H67" s="35"/>
+      <c r="I67" s="35"/>
+      <c r="J67" s="35"/>
+      <c r="K67" s="35"/>
+      <c r="L67" s="35"/>
+      <c r="M67" s="35"/>
+      <c r="N67" s="35"/>
+      <c r="O67" s="35"/>
+      <c r="P67" s="35"/>
+      <c r="Q67" s="35"/>
+      <c r="R67" s="35"/>
+      <c r="S67" s="35"/>
+      <c r="T67" s="35"/>
+      <c r="U67" s="35"/>
+      <c r="V67" s="35"/>
+      <c r="W67" s="35"/>
+      <c r="X67" s="35"/>
+      <c r="Y67" s="35"/>
+      <c r="Z67" s="35"/>
+      <c r="AA67" s="35"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="30">
@@ -4187,30 +4179,30 @@
       <c r="E68" s="26">
         <v>1.0</v>
       </c>
-      <c r="F68" s="34">
-        <v>6.0</v>
-      </c>
-      <c r="G68" s="35"/>
-      <c r="H68" s="36"/>
-      <c r="I68" s="36"/>
-      <c r="J68" s="36"/>
-      <c r="K68" s="36"/>
-      <c r="L68" s="36"/>
-      <c r="M68" s="36"/>
-      <c r="N68" s="36"/>
-      <c r="O68" s="36"/>
-      <c r="P68" s="36"/>
-      <c r="Q68" s="36"/>
-      <c r="R68" s="36"/>
-      <c r="S68" s="36"/>
-      <c r="T68" s="36"/>
-      <c r="U68" s="36"/>
-      <c r="V68" s="36"/>
-      <c r="W68" s="36"/>
-      <c r="X68" s="36"/>
-      <c r="Y68" s="36"/>
-      <c r="Z68" s="36"/>
-      <c r="AA68" s="36"/>
+      <c r="F68" s="33">
+        <v>7.0</v>
+      </c>
+      <c r="G68" s="34"/>
+      <c r="H68" s="35"/>
+      <c r="I68" s="35"/>
+      <c r="J68" s="35"/>
+      <c r="K68" s="35"/>
+      <c r="L68" s="35"/>
+      <c r="M68" s="35"/>
+      <c r="N68" s="35"/>
+      <c r="O68" s="35"/>
+      <c r="P68" s="35"/>
+      <c r="Q68" s="35"/>
+      <c r="R68" s="35"/>
+      <c r="S68" s="35"/>
+      <c r="T68" s="35"/>
+      <c r="U68" s="35"/>
+      <c r="V68" s="35"/>
+      <c r="W68" s="35"/>
+      <c r="X68" s="35"/>
+      <c r="Y68" s="35"/>
+      <c r="Z68" s="35"/>
+      <c r="AA68" s="35"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="30">
@@ -4226,34 +4218,34 @@
       <c r="D69" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E69" s="33">
+      <c r="E69" s="36">
         <f>IF(D69&gt;0,COUNTIF(G69:Z69,"A"),"")</f>
         <v>0</v>
       </c>
-      <c r="F69" s="34">
-        <v>7.0</v>
-      </c>
-      <c r="G69" s="35"/>
-      <c r="H69" s="36"/>
-      <c r="I69" s="36"/>
-      <c r="J69" s="36"/>
-      <c r="K69" s="36"/>
-      <c r="L69" s="36"/>
-      <c r="M69" s="36"/>
-      <c r="N69" s="36"/>
-      <c r="O69" s="36"/>
-      <c r="P69" s="36"/>
-      <c r="Q69" s="36"/>
-      <c r="R69" s="36"/>
-      <c r="S69" s="36"/>
-      <c r="T69" s="36"/>
-      <c r="U69" s="36"/>
-      <c r="V69" s="36"/>
-      <c r="W69" s="36"/>
-      <c r="X69" s="36"/>
-      <c r="Y69" s="36"/>
-      <c r="Z69" s="36"/>
-      <c r="AA69" s="36"/>
+      <c r="F69" s="33">
+        <v>8.0</v>
+      </c>
+      <c r="G69" s="34"/>
+      <c r="H69" s="35"/>
+      <c r="I69" s="35"/>
+      <c r="J69" s="35"/>
+      <c r="K69" s="35"/>
+      <c r="L69" s="35"/>
+      <c r="M69" s="35"/>
+      <c r="N69" s="35"/>
+      <c r="O69" s="35"/>
+      <c r="P69" s="35"/>
+      <c r="Q69" s="35"/>
+      <c r="R69" s="35"/>
+      <c r="S69" s="35"/>
+      <c r="T69" s="35"/>
+      <c r="U69" s="35"/>
+      <c r="V69" s="35"/>
+      <c r="W69" s="35"/>
+      <c r="X69" s="35"/>
+      <c r="Y69" s="35"/>
+      <c r="Z69" s="35"/>
+      <c r="AA69" s="35"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="30">
@@ -4272,30 +4264,30 @@
       <c r="E70" s="26">
         <v>2.0</v>
       </c>
-      <c r="F70" s="34">
-        <v>5.0</v>
-      </c>
-      <c r="G70" s="35"/>
-      <c r="H70" s="36"/>
-      <c r="I70" s="36"/>
-      <c r="J70" s="36"/>
-      <c r="K70" s="36"/>
-      <c r="L70" s="36"/>
-      <c r="M70" s="36"/>
-      <c r="N70" s="36"/>
-      <c r="O70" s="36"/>
-      <c r="P70" s="36"/>
-      <c r="Q70" s="36"/>
-      <c r="R70" s="36"/>
-      <c r="S70" s="36"/>
-      <c r="T70" s="36"/>
-      <c r="U70" s="36"/>
-      <c r="V70" s="36"/>
-      <c r="W70" s="36"/>
-      <c r="X70" s="36"/>
-      <c r="Y70" s="36"/>
-      <c r="Z70" s="36"/>
-      <c r="AA70" s="36"/>
+      <c r="F70" s="33">
+        <v>6.0</v>
+      </c>
+      <c r="G70" s="34"/>
+      <c r="H70" s="35"/>
+      <c r="I70" s="35"/>
+      <c r="J70" s="35"/>
+      <c r="K70" s="35"/>
+      <c r="L70" s="35"/>
+      <c r="M70" s="35"/>
+      <c r="N70" s="35"/>
+      <c r="O70" s="35"/>
+      <c r="P70" s="35"/>
+      <c r="Q70" s="35"/>
+      <c r="R70" s="35"/>
+      <c r="S70" s="35"/>
+      <c r="T70" s="35"/>
+      <c r="U70" s="35"/>
+      <c r="V70" s="35"/>
+      <c r="W70" s="35"/>
+      <c r="X70" s="35"/>
+      <c r="Y70" s="35"/>
+      <c r="Z70" s="35"/>
+      <c r="AA70" s="35"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="30">
@@ -4311,34 +4303,34 @@
       <c r="D71" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E71" s="33">
+      <c r="E71" s="36">
         <f>IF(D71&gt;0,COUNTIF(G71:Z71,"A"),"")</f>
         <v>0</v>
       </c>
-      <c r="F71" s="34">
-        <v>7.0</v>
-      </c>
-      <c r="G71" s="35"/>
-      <c r="H71" s="36"/>
-      <c r="I71" s="36"/>
-      <c r="J71" s="36"/>
-      <c r="K71" s="36"/>
-      <c r="L71" s="36"/>
-      <c r="M71" s="36"/>
-      <c r="N71" s="36"/>
-      <c r="O71" s="36"/>
-      <c r="P71" s="36"/>
-      <c r="Q71" s="36"/>
-      <c r="R71" s="36"/>
-      <c r="S71" s="36"/>
-      <c r="T71" s="36"/>
-      <c r="U71" s="36"/>
-      <c r="V71" s="36"/>
-      <c r="W71" s="36"/>
-      <c r="X71" s="36"/>
-      <c r="Y71" s="36"/>
-      <c r="Z71" s="36"/>
-      <c r="AA71" s="36"/>
+      <c r="F71" s="33">
+        <v>8.0</v>
+      </c>
+      <c r="G71" s="34"/>
+      <c r="H71" s="35"/>
+      <c r="I71" s="35"/>
+      <c r="J71" s="35"/>
+      <c r="K71" s="35"/>
+      <c r="L71" s="35"/>
+      <c r="M71" s="35"/>
+      <c r="N71" s="35"/>
+      <c r="O71" s="35"/>
+      <c r="P71" s="35"/>
+      <c r="Q71" s="35"/>
+      <c r="R71" s="35"/>
+      <c r="S71" s="35"/>
+      <c r="T71" s="35"/>
+      <c r="U71" s="35"/>
+      <c r="V71" s="35"/>
+      <c r="W71" s="35"/>
+      <c r="X71" s="35"/>
+      <c r="Y71" s="35"/>
+      <c r="Z71" s="35"/>
+      <c r="AA71" s="35"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="30">
@@ -4355,32 +4347,32 @@
         <v>9</v>
       </c>
       <c r="E72" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="F72" s="34">
+        <v>2.0</v>
+      </c>
+      <c r="F72" s="33">
         <v>6.0</v>
       </c>
-      <c r="G72" s="35"/>
-      <c r="H72" s="36"/>
-      <c r="I72" s="36"/>
-      <c r="J72" s="36"/>
-      <c r="K72" s="36"/>
-      <c r="L72" s="36"/>
-      <c r="M72" s="36"/>
-      <c r="N72" s="36"/>
-      <c r="O72" s="36"/>
-      <c r="P72" s="36"/>
-      <c r="Q72" s="36"/>
-      <c r="R72" s="36"/>
-      <c r="S72" s="36"/>
-      <c r="T72" s="36"/>
-      <c r="U72" s="36"/>
-      <c r="V72" s="36"/>
-      <c r="W72" s="36"/>
-      <c r="X72" s="36"/>
-      <c r="Y72" s="36"/>
-      <c r="Z72" s="36"/>
-      <c r="AA72" s="36"/>
+      <c r="G72" s="34"/>
+      <c r="H72" s="35"/>
+      <c r="I72" s="35"/>
+      <c r="J72" s="35"/>
+      <c r="K72" s="35"/>
+      <c r="L72" s="35"/>
+      <c r="M72" s="35"/>
+      <c r="N72" s="35"/>
+      <c r="O72" s="35"/>
+      <c r="P72" s="35"/>
+      <c r="Q72" s="35"/>
+      <c r="R72" s="35"/>
+      <c r="S72" s="35"/>
+      <c r="T72" s="35"/>
+      <c r="U72" s="35"/>
+      <c r="V72" s="35"/>
+      <c r="W72" s="35"/>
+      <c r="X72" s="35"/>
+      <c r="Y72" s="35"/>
+      <c r="Z72" s="35"/>
+      <c r="AA72" s="35"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="30">
@@ -4399,30 +4391,30 @@
       <c r="E73" s="26">
         <v>1.0</v>
       </c>
-      <c r="F73" s="34">
-        <v>6.0</v>
-      </c>
-      <c r="G73" s="35"/>
-      <c r="H73" s="36"/>
-      <c r="I73" s="36"/>
-      <c r="J73" s="36"/>
-      <c r="K73" s="36"/>
-      <c r="L73" s="36"/>
-      <c r="M73" s="36"/>
-      <c r="N73" s="36"/>
-      <c r="O73" s="36"/>
-      <c r="P73" s="36"/>
-      <c r="Q73" s="36"/>
-      <c r="R73" s="36"/>
-      <c r="S73" s="36"/>
-      <c r="T73" s="36"/>
-      <c r="U73" s="36"/>
-      <c r="V73" s="36"/>
-      <c r="W73" s="36"/>
-      <c r="X73" s="36"/>
-      <c r="Y73" s="36"/>
-      <c r="Z73" s="36"/>
-      <c r="AA73" s="36"/>
+      <c r="F73" s="33">
+        <v>7.0</v>
+      </c>
+      <c r="G73" s="34"/>
+      <c r="H73" s="35"/>
+      <c r="I73" s="35"/>
+      <c r="J73" s="35"/>
+      <c r="K73" s="35"/>
+      <c r="L73" s="35"/>
+      <c r="M73" s="35"/>
+      <c r="N73" s="35"/>
+      <c r="O73" s="35"/>
+      <c r="P73" s="35"/>
+      <c r="Q73" s="35"/>
+      <c r="R73" s="35"/>
+      <c r="S73" s="35"/>
+      <c r="T73" s="35"/>
+      <c r="U73" s="35"/>
+      <c r="V73" s="35"/>
+      <c r="W73" s="35"/>
+      <c r="X73" s="35"/>
+      <c r="Y73" s="35"/>
+      <c r="Z73" s="35"/>
+      <c r="AA73" s="35"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="30">
@@ -4441,30 +4433,30 @@
       <c r="E74" s="26">
         <v>2.0</v>
       </c>
-      <c r="F74" s="34">
-        <v>5.0</v>
-      </c>
-      <c r="G74" s="35"/>
-      <c r="H74" s="36"/>
-      <c r="I74" s="36"/>
-      <c r="J74" s="36"/>
-      <c r="K74" s="36"/>
-      <c r="L74" s="36"/>
-      <c r="M74" s="36"/>
-      <c r="N74" s="36"/>
-      <c r="O74" s="36"/>
-      <c r="P74" s="36"/>
-      <c r="Q74" s="36"/>
-      <c r="R74" s="36"/>
-      <c r="S74" s="36"/>
-      <c r="T74" s="36"/>
-      <c r="U74" s="36"/>
-      <c r="V74" s="36"/>
-      <c r="W74" s="36"/>
-      <c r="X74" s="36"/>
-      <c r="Y74" s="36"/>
-      <c r="Z74" s="36"/>
-      <c r="AA74" s="36"/>
+      <c r="F74" s="33">
+        <v>6.0</v>
+      </c>
+      <c r="G74" s="34"/>
+      <c r="H74" s="35"/>
+      <c r="I74" s="35"/>
+      <c r="J74" s="35"/>
+      <c r="K74" s="35"/>
+      <c r="L74" s="35"/>
+      <c r="M74" s="35"/>
+      <c r="N74" s="35"/>
+      <c r="O74" s="35"/>
+      <c r="P74" s="35"/>
+      <c r="Q74" s="35"/>
+      <c r="R74" s="35"/>
+      <c r="S74" s="35"/>
+      <c r="T74" s="35"/>
+      <c r="U74" s="35"/>
+      <c r="V74" s="35"/>
+      <c r="W74" s="35"/>
+      <c r="X74" s="35"/>
+      <c r="Y74" s="35"/>
+      <c r="Z74" s="35"/>
+      <c r="AA74" s="35"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="30">
@@ -4483,30 +4475,30 @@
       <c r="E75" s="26">
         <v>2.0</v>
       </c>
-      <c r="F75" s="34">
-        <v>5.0</v>
-      </c>
-      <c r="G75" s="35"/>
-      <c r="H75" s="36"/>
-      <c r="I75" s="36"/>
-      <c r="J75" s="36"/>
-      <c r="K75" s="36"/>
-      <c r="L75" s="36"/>
-      <c r="M75" s="36"/>
-      <c r="N75" s="36"/>
-      <c r="O75" s="36"/>
-      <c r="P75" s="36"/>
-      <c r="Q75" s="36"/>
-      <c r="R75" s="36"/>
-      <c r="S75" s="36"/>
-      <c r="T75" s="36"/>
-      <c r="U75" s="36"/>
-      <c r="V75" s="36"/>
-      <c r="W75" s="36"/>
-      <c r="X75" s="36"/>
-      <c r="Y75" s="36"/>
-      <c r="Z75" s="36"/>
-      <c r="AA75" s="36"/>
+      <c r="F75" s="33">
+        <v>6.0</v>
+      </c>
+      <c r="G75" s="34"/>
+      <c r="H75" s="35"/>
+      <c r="I75" s="35"/>
+      <c r="J75" s="35"/>
+      <c r="K75" s="35"/>
+      <c r="L75" s="35"/>
+      <c r="M75" s="35"/>
+      <c r="N75" s="35"/>
+      <c r="O75" s="35"/>
+      <c r="P75" s="35"/>
+      <c r="Q75" s="35"/>
+      <c r="R75" s="35"/>
+      <c r="S75" s="35"/>
+      <c r="T75" s="35"/>
+      <c r="U75" s="35"/>
+      <c r="V75" s="35"/>
+      <c r="W75" s="35"/>
+      <c r="X75" s="35"/>
+      <c r="Y75" s="35"/>
+      <c r="Z75" s="35"/>
+      <c r="AA75" s="35"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="30">
@@ -4522,34 +4514,34 @@
       <c r="D76" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E76" s="33">
+      <c r="E76" s="36">
         <f>IF(D76&gt;0,COUNTIF(G76:Z76,"A"),"")</f>
         <v>0</v>
       </c>
-      <c r="F76" s="34">
-        <v>7.0</v>
-      </c>
-      <c r="G76" s="35"/>
-      <c r="H76" s="36"/>
-      <c r="I76" s="36"/>
-      <c r="J76" s="36"/>
-      <c r="K76" s="36"/>
-      <c r="L76" s="36"/>
-      <c r="M76" s="36"/>
-      <c r="N76" s="36"/>
-      <c r="O76" s="36"/>
-      <c r="P76" s="36"/>
-      <c r="Q76" s="36"/>
-      <c r="R76" s="36"/>
-      <c r="S76" s="36"/>
-      <c r="T76" s="36"/>
-      <c r="U76" s="36"/>
-      <c r="V76" s="36"/>
-      <c r="W76" s="36"/>
-      <c r="X76" s="36"/>
-      <c r="Y76" s="36"/>
-      <c r="Z76" s="36"/>
-      <c r="AA76" s="36"/>
+      <c r="F76" s="33">
+        <v>8.0</v>
+      </c>
+      <c r="G76" s="34"/>
+      <c r="H76" s="35"/>
+      <c r="I76" s="35"/>
+      <c r="J76" s="35"/>
+      <c r="K76" s="35"/>
+      <c r="L76" s="35"/>
+      <c r="M76" s="35"/>
+      <c r="N76" s="35"/>
+      <c r="O76" s="35"/>
+      <c r="P76" s="35"/>
+      <c r="Q76" s="35"/>
+      <c r="R76" s="35"/>
+      <c r="S76" s="35"/>
+      <c r="T76" s="35"/>
+      <c r="U76" s="35"/>
+      <c r="V76" s="35"/>
+      <c r="W76" s="35"/>
+      <c r="X76" s="35"/>
+      <c r="Y76" s="35"/>
+      <c r="Z76" s="35"/>
+      <c r="AA76" s="35"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="30">
@@ -4568,30 +4560,30 @@
       <c r="E77" s="26">
         <v>2.0</v>
       </c>
-      <c r="F77" s="34">
-        <v>5.0</v>
-      </c>
-      <c r="G77" s="35"/>
-      <c r="H77" s="36"/>
-      <c r="I77" s="36"/>
-      <c r="J77" s="36"/>
-      <c r="K77" s="36"/>
-      <c r="L77" s="36"/>
-      <c r="M77" s="36"/>
-      <c r="N77" s="36"/>
-      <c r="O77" s="36"/>
-      <c r="P77" s="36"/>
-      <c r="Q77" s="36"/>
-      <c r="R77" s="36"/>
-      <c r="S77" s="36"/>
-      <c r="T77" s="36"/>
-      <c r="U77" s="36"/>
-      <c r="V77" s="36"/>
-      <c r="W77" s="36"/>
-      <c r="X77" s="36"/>
-      <c r="Y77" s="36"/>
-      <c r="Z77" s="36"/>
-      <c r="AA77" s="36"/>
+      <c r="F77" s="33">
+        <v>6.0</v>
+      </c>
+      <c r="G77" s="34"/>
+      <c r="H77" s="35"/>
+      <c r="I77" s="35"/>
+      <c r="J77" s="35"/>
+      <c r="K77" s="35"/>
+      <c r="L77" s="35"/>
+      <c r="M77" s="35"/>
+      <c r="N77" s="35"/>
+      <c r="O77" s="35"/>
+      <c r="P77" s="35"/>
+      <c r="Q77" s="35"/>
+      <c r="R77" s="35"/>
+      <c r="S77" s="35"/>
+      <c r="T77" s="35"/>
+      <c r="U77" s="35"/>
+      <c r="V77" s="35"/>
+      <c r="W77" s="35"/>
+      <c r="X77" s="35"/>
+      <c r="Y77" s="35"/>
+      <c r="Z77" s="35"/>
+      <c r="AA77" s="35"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="30">
@@ -4610,30 +4602,30 @@
       <c r="E78" s="26">
         <v>1.0</v>
       </c>
-      <c r="F78" s="34">
-        <v>6.0</v>
-      </c>
-      <c r="G78" s="35"/>
-      <c r="H78" s="36"/>
-      <c r="I78" s="36"/>
-      <c r="J78" s="36"/>
-      <c r="K78" s="36"/>
-      <c r="L78" s="36"/>
-      <c r="M78" s="36"/>
-      <c r="N78" s="36"/>
-      <c r="O78" s="36"/>
-      <c r="P78" s="36"/>
-      <c r="Q78" s="36"/>
-      <c r="R78" s="36"/>
-      <c r="S78" s="36"/>
-      <c r="T78" s="36"/>
-      <c r="U78" s="36"/>
-      <c r="V78" s="36"/>
-      <c r="W78" s="36"/>
-      <c r="X78" s="36"/>
-      <c r="Y78" s="36"/>
-      <c r="Z78" s="36"/>
-      <c r="AA78" s="36"/>
+      <c r="F78" s="33">
+        <v>7.0</v>
+      </c>
+      <c r="G78" s="34"/>
+      <c r="H78" s="35"/>
+      <c r="I78" s="35"/>
+      <c r="J78" s="35"/>
+      <c r="K78" s="35"/>
+      <c r="L78" s="35"/>
+      <c r="M78" s="35"/>
+      <c r="N78" s="35"/>
+      <c r="O78" s="35"/>
+      <c r="P78" s="35"/>
+      <c r="Q78" s="35"/>
+      <c r="R78" s="35"/>
+      <c r="S78" s="35"/>
+      <c r="T78" s="35"/>
+      <c r="U78" s="35"/>
+      <c r="V78" s="35"/>
+      <c r="W78" s="35"/>
+      <c r="X78" s="35"/>
+      <c r="Y78" s="35"/>
+      <c r="Z78" s="35"/>
+      <c r="AA78" s="35"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="30">
@@ -4650,32 +4642,32 @@
         <v>9</v>
       </c>
       <c r="E79" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="F79" s="34">
+        <v>2.0</v>
+      </c>
+      <c r="F79" s="33">
         <v>6.0</v>
       </c>
-      <c r="G79" s="35"/>
-      <c r="H79" s="36"/>
-      <c r="I79" s="36"/>
-      <c r="J79" s="36"/>
-      <c r="K79" s="36"/>
-      <c r="L79" s="36"/>
-      <c r="M79" s="36"/>
-      <c r="N79" s="36"/>
-      <c r="O79" s="36"/>
-      <c r="P79" s="36"/>
-      <c r="Q79" s="36"/>
-      <c r="R79" s="36"/>
-      <c r="S79" s="36"/>
-      <c r="T79" s="36"/>
-      <c r="U79" s="36"/>
-      <c r="V79" s="36"/>
-      <c r="W79" s="36"/>
-      <c r="X79" s="36"/>
-      <c r="Y79" s="36"/>
-      <c r="Z79" s="36"/>
-      <c r="AA79" s="36"/>
+      <c r="G79" s="34"/>
+      <c r="H79" s="35"/>
+      <c r="I79" s="35"/>
+      <c r="J79" s="35"/>
+      <c r="K79" s="35"/>
+      <c r="L79" s="35"/>
+      <c r="M79" s="35"/>
+      <c r="N79" s="35"/>
+      <c r="O79" s="35"/>
+      <c r="P79" s="35"/>
+      <c r="Q79" s="35"/>
+      <c r="R79" s="35"/>
+      <c r="S79" s="35"/>
+      <c r="T79" s="35"/>
+      <c r="U79" s="35"/>
+      <c r="V79" s="35"/>
+      <c r="W79" s="35"/>
+      <c r="X79" s="35"/>
+      <c r="Y79" s="35"/>
+      <c r="Z79" s="35"/>
+      <c r="AA79" s="35"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="30">
@@ -4692,32 +4684,32 @@
         <v>9</v>
       </c>
       <c r="E80" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="F80" s="34">
+        <v>3.0</v>
+      </c>
+      <c r="F80" s="33">
         <v>5.0</v>
       </c>
-      <c r="G80" s="35"/>
-      <c r="H80" s="36"/>
-      <c r="I80" s="36"/>
-      <c r="J80" s="36"/>
-      <c r="K80" s="36"/>
-      <c r="L80" s="36"/>
-      <c r="M80" s="36"/>
-      <c r="N80" s="36"/>
-      <c r="O80" s="36"/>
-      <c r="P80" s="36"/>
-      <c r="Q80" s="36"/>
-      <c r="R80" s="36"/>
-      <c r="S80" s="36"/>
-      <c r="T80" s="36"/>
-      <c r="U80" s="36"/>
-      <c r="V80" s="36"/>
-      <c r="W80" s="36"/>
-      <c r="X80" s="36"/>
-      <c r="Y80" s="36"/>
-      <c r="Z80" s="36"/>
-      <c r="AA80" s="36"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="35"/>
+      <c r="I80" s="35"/>
+      <c r="J80" s="35"/>
+      <c r="K80" s="35"/>
+      <c r="L80" s="35"/>
+      <c r="M80" s="35"/>
+      <c r="N80" s="35"/>
+      <c r="O80" s="35"/>
+      <c r="P80" s="35"/>
+      <c r="Q80" s="35"/>
+      <c r="R80" s="35"/>
+      <c r="S80" s="35"/>
+      <c r="T80" s="35"/>
+      <c r="U80" s="35"/>
+      <c r="V80" s="35"/>
+      <c r="W80" s="35"/>
+      <c r="X80" s="35"/>
+      <c r="Y80" s="35"/>
+      <c r="Z80" s="35"/>
+      <c r="AA80" s="35"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="30" t="str">
@@ -4726,36 +4718,36 @@
       </c>
       <c r="B81" s="31"/>
       <c r="C81" s="32"/>
-      <c r="D81" s="33"/>
-      <c r="E81" s="33" t="str">
-        <f t="shared" ref="E81:E96" si="5">IF(D81&gt;0,COUNTIF(G81:Z81,"A"),"")</f>
-        <v/>
-      </c>
-      <c r="F81" s="42" t="str">
-        <f t="shared" ref="F81:F96" si="6">IF(D81&gt;0,COUNTIF(G81:Z81,"P"),"")</f>
-        <v/>
-      </c>
-      <c r="G81" s="43"/>
-      <c r="H81" s="36"/>
-      <c r="I81" s="36"/>
-      <c r="J81" s="36"/>
-      <c r="K81" s="36"/>
-      <c r="L81" s="36"/>
-      <c r="M81" s="36"/>
-      <c r="N81" s="36"/>
-      <c r="O81" s="36"/>
-      <c r="P81" s="36"/>
-      <c r="Q81" s="36"/>
-      <c r="R81" s="36"/>
-      <c r="S81" s="36"/>
-      <c r="T81" s="36"/>
-      <c r="U81" s="36"/>
-      <c r="V81" s="36"/>
-      <c r="W81" s="36"/>
-      <c r="X81" s="36"/>
-      <c r="Y81" s="36"/>
-      <c r="Z81" s="36"/>
-      <c r="AA81" s="36"/>
+      <c r="D81" s="36"/>
+      <c r="E81" s="36" t="str">
+        <f t="shared" ref="E81:E96" si="4">IF(D81&gt;0,COUNTIF(G81:Z81,"A"),"")</f>
+        <v/>
+      </c>
+      <c r="F81" s="41" t="str">
+        <f t="shared" ref="F81:F96" si="5">IF(D81&gt;0,COUNTIF(G81:Z81,"P"),"")</f>
+        <v/>
+      </c>
+      <c r="G81" s="42"/>
+      <c r="H81" s="35"/>
+      <c r="I81" s="35"/>
+      <c r="J81" s="35"/>
+      <c r="K81" s="35"/>
+      <c r="L81" s="35"/>
+      <c r="M81" s="35"/>
+      <c r="N81" s="35"/>
+      <c r="O81" s="35"/>
+      <c r="P81" s="35"/>
+      <c r="Q81" s="35"/>
+      <c r="R81" s="35"/>
+      <c r="S81" s="35"/>
+      <c r="T81" s="35"/>
+      <c r="U81" s="35"/>
+      <c r="V81" s="35"/>
+      <c r="W81" s="35"/>
+      <c r="X81" s="35"/>
+      <c r="Y81" s="35"/>
+      <c r="Z81" s="35"/>
+      <c r="AA81" s="35"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="30" t="str">
@@ -4764,36 +4756,36 @@
       </c>
       <c r="B82" s="31"/>
       <c r="C82" s="32"/>
-      <c r="D82" s="33"/>
-      <c r="E82" s="33" t="str">
+      <c r="D82" s="36"/>
+      <c r="E82" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F82" s="41" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F82" s="42" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G82" s="43"/>
-      <c r="H82" s="36"/>
-      <c r="I82" s="36"/>
-      <c r="J82" s="36"/>
-      <c r="K82" s="36"/>
-      <c r="L82" s="36"/>
-      <c r="M82" s="36"/>
-      <c r="N82" s="36"/>
-      <c r="O82" s="36"/>
-      <c r="P82" s="36"/>
-      <c r="Q82" s="36"/>
-      <c r="R82" s="36"/>
-      <c r="S82" s="36"/>
-      <c r="T82" s="36"/>
-      <c r="U82" s="36"/>
-      <c r="V82" s="36"/>
-      <c r="W82" s="36"/>
-      <c r="X82" s="36"/>
-      <c r="Y82" s="36"/>
-      <c r="Z82" s="36"/>
-      <c r="AA82" s="36"/>
+      <c r="G82" s="42"/>
+      <c r="H82" s="35"/>
+      <c r="I82" s="35"/>
+      <c r="J82" s="35"/>
+      <c r="K82" s="35"/>
+      <c r="L82" s="35"/>
+      <c r="M82" s="35"/>
+      <c r="N82" s="35"/>
+      <c r="O82" s="35"/>
+      <c r="P82" s="35"/>
+      <c r="Q82" s="35"/>
+      <c r="R82" s="35"/>
+      <c r="S82" s="35"/>
+      <c r="T82" s="35"/>
+      <c r="U82" s="35"/>
+      <c r="V82" s="35"/>
+      <c r="W82" s="35"/>
+      <c r="X82" s="35"/>
+      <c r="Y82" s="35"/>
+      <c r="Z82" s="35"/>
+      <c r="AA82" s="35"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="30" t="str">
@@ -4802,36 +4794,36 @@
       </c>
       <c r="B83" s="31"/>
       <c r="C83" s="32"/>
-      <c r="D83" s="33"/>
-      <c r="E83" s="33" t="str">
+      <c r="D83" s="36"/>
+      <c r="E83" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F83" s="41" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F83" s="42" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G83" s="43"/>
-      <c r="H83" s="36"/>
-      <c r="I83" s="36"/>
-      <c r="J83" s="36"/>
-      <c r="K83" s="36"/>
-      <c r="L83" s="36"/>
-      <c r="M83" s="36"/>
-      <c r="N83" s="36"/>
-      <c r="O83" s="36"/>
-      <c r="P83" s="36"/>
-      <c r="Q83" s="36"/>
-      <c r="R83" s="36"/>
-      <c r="S83" s="36"/>
-      <c r="T83" s="36"/>
-      <c r="U83" s="36"/>
-      <c r="V83" s="36"/>
-      <c r="W83" s="36"/>
-      <c r="X83" s="36"/>
-      <c r="Y83" s="36"/>
-      <c r="Z83" s="36"/>
-      <c r="AA83" s="36"/>
+      <c r="G83" s="42"/>
+      <c r="H83" s="35"/>
+      <c r="I83" s="35"/>
+      <c r="J83" s="35"/>
+      <c r="K83" s="35"/>
+      <c r="L83" s="35"/>
+      <c r="M83" s="35"/>
+      <c r="N83" s="35"/>
+      <c r="O83" s="35"/>
+      <c r="P83" s="35"/>
+      <c r="Q83" s="35"/>
+      <c r="R83" s="35"/>
+      <c r="S83" s="35"/>
+      <c r="T83" s="35"/>
+      <c r="U83" s="35"/>
+      <c r="V83" s="35"/>
+      <c r="W83" s="35"/>
+      <c r="X83" s="35"/>
+      <c r="Y83" s="35"/>
+      <c r="Z83" s="35"/>
+      <c r="AA83" s="35"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="30" t="str">
@@ -4840,36 +4832,36 @@
       </c>
       <c r="B84" s="31"/>
       <c r="C84" s="32"/>
-      <c r="D84" s="33"/>
-      <c r="E84" s="33" t="str">
+      <c r="D84" s="36"/>
+      <c r="E84" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F84" s="41" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F84" s="42" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G84" s="43"/>
-      <c r="H84" s="36"/>
-      <c r="I84" s="36"/>
-      <c r="J84" s="36"/>
-      <c r="K84" s="36"/>
-      <c r="L84" s="36"/>
-      <c r="M84" s="36"/>
-      <c r="N84" s="36"/>
-      <c r="O84" s="36"/>
-      <c r="P84" s="36"/>
-      <c r="Q84" s="36"/>
-      <c r="R84" s="36"/>
-      <c r="S84" s="36"/>
-      <c r="T84" s="36"/>
-      <c r="U84" s="36"/>
-      <c r="V84" s="36"/>
-      <c r="W84" s="36"/>
-      <c r="X84" s="36"/>
-      <c r="Y84" s="36"/>
-      <c r="Z84" s="36"/>
-      <c r="AA84" s="36"/>
+      <c r="G84" s="42"/>
+      <c r="H84" s="35"/>
+      <c r="I84" s="35"/>
+      <c r="J84" s="35"/>
+      <c r="K84" s="35"/>
+      <c r="L84" s="35"/>
+      <c r="M84" s="35"/>
+      <c r="N84" s="35"/>
+      <c r="O84" s="35"/>
+      <c r="P84" s="35"/>
+      <c r="Q84" s="35"/>
+      <c r="R84" s="35"/>
+      <c r="S84" s="35"/>
+      <c r="T84" s="35"/>
+      <c r="U84" s="35"/>
+      <c r="V84" s="35"/>
+      <c r="W84" s="35"/>
+      <c r="X84" s="35"/>
+      <c r="Y84" s="35"/>
+      <c r="Z84" s="35"/>
+      <c r="AA84" s="35"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="30" t="str">
@@ -4878,454 +4870,454 @@
       </c>
       <c r="B85" s="31"/>
       <c r="C85" s="32"/>
-      <c r="D85" s="33"/>
-      <c r="E85" s="33" t="str">
+      <c r="D85" s="36"/>
+      <c r="E85" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F85" s="41" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F85" s="42" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G85" s="43"/>
-      <c r="H85" s="36"/>
-      <c r="I85" s="36"/>
-      <c r="J85" s="36"/>
-      <c r="K85" s="36"/>
-      <c r="L85" s="36"/>
-      <c r="M85" s="36"/>
-      <c r="N85" s="36"/>
-      <c r="O85" s="36"/>
-      <c r="P85" s="36"/>
-      <c r="Q85" s="36"/>
-      <c r="R85" s="36"/>
-      <c r="S85" s="36"/>
-      <c r="T85" s="36"/>
-      <c r="U85" s="36"/>
-      <c r="V85" s="36"/>
-      <c r="W85" s="36"/>
-      <c r="X85" s="36"/>
-      <c r="Y85" s="36"/>
-      <c r="Z85" s="36"/>
-      <c r="AA85" s="36"/>
+      <c r="G85" s="42"/>
+      <c r="H85" s="35"/>
+      <c r="I85" s="35"/>
+      <c r="J85" s="35"/>
+      <c r="K85" s="35"/>
+      <c r="L85" s="35"/>
+      <c r="M85" s="35"/>
+      <c r="N85" s="35"/>
+      <c r="O85" s="35"/>
+      <c r="P85" s="35"/>
+      <c r="Q85" s="35"/>
+      <c r="R85" s="35"/>
+      <c r="S85" s="35"/>
+      <c r="T85" s="35"/>
+      <c r="U85" s="35"/>
+      <c r="V85" s="35"/>
+      <c r="W85" s="35"/>
+      <c r="X85" s="35"/>
+      <c r="Y85" s="35"/>
+      <c r="Z85" s="35"/>
+      <c r="AA85" s="35"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="30" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B86" s="44"/>
-      <c r="C86" s="44"/>
-      <c r="D86" s="33"/>
-      <c r="E86" s="33" t="str">
+      <c r="B86" s="43"/>
+      <c r="C86" s="43"/>
+      <c r="D86" s="36"/>
+      <c r="E86" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F86" s="41" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F86" s="42" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G86" s="43"/>
-      <c r="H86" s="36"/>
-      <c r="I86" s="36"/>
-      <c r="J86" s="36"/>
-      <c r="K86" s="36"/>
-      <c r="L86" s="36"/>
-      <c r="M86" s="36"/>
-      <c r="N86" s="36"/>
-      <c r="O86" s="36"/>
-      <c r="P86" s="36"/>
-      <c r="Q86" s="36"/>
-      <c r="R86" s="36"/>
-      <c r="S86" s="36"/>
-      <c r="T86" s="36"/>
-      <c r="U86" s="36"/>
-      <c r="V86" s="36"/>
-      <c r="W86" s="36"/>
-      <c r="X86" s="36"/>
-      <c r="Y86" s="36"/>
-      <c r="Z86" s="36"/>
-      <c r="AA86" s="36"/>
+      <c r="G86" s="42"/>
+      <c r="H86" s="35"/>
+      <c r="I86" s="35"/>
+      <c r="J86" s="35"/>
+      <c r="K86" s="35"/>
+      <c r="L86" s="35"/>
+      <c r="M86" s="35"/>
+      <c r="N86" s="35"/>
+      <c r="O86" s="35"/>
+      <c r="P86" s="35"/>
+      <c r="Q86" s="35"/>
+      <c r="R86" s="35"/>
+      <c r="S86" s="35"/>
+      <c r="T86" s="35"/>
+      <c r="U86" s="35"/>
+      <c r="V86" s="35"/>
+      <c r="W86" s="35"/>
+      <c r="X86" s="35"/>
+      <c r="Y86" s="35"/>
+      <c r="Z86" s="35"/>
+      <c r="AA86" s="35"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="30" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B87" s="44"/>
-      <c r="C87" s="44"/>
-      <c r="D87" s="33"/>
-      <c r="E87" s="33" t="str">
+      <c r="B87" s="43"/>
+      <c r="C87" s="43"/>
+      <c r="D87" s="36"/>
+      <c r="E87" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F87" s="41" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F87" s="42" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G87" s="43"/>
-      <c r="H87" s="36"/>
-      <c r="I87" s="36"/>
-      <c r="J87" s="36"/>
-      <c r="K87" s="36"/>
-      <c r="L87" s="36"/>
-      <c r="M87" s="36"/>
-      <c r="N87" s="36"/>
-      <c r="O87" s="36"/>
-      <c r="P87" s="36"/>
-      <c r="Q87" s="36"/>
-      <c r="R87" s="36"/>
-      <c r="S87" s="36"/>
-      <c r="T87" s="36"/>
-      <c r="U87" s="36"/>
-      <c r="V87" s="36"/>
-      <c r="W87" s="36"/>
-      <c r="X87" s="36"/>
-      <c r="Y87" s="36"/>
-      <c r="Z87" s="36"/>
-      <c r="AA87" s="36"/>
+      <c r="G87" s="42"/>
+      <c r="H87" s="35"/>
+      <c r="I87" s="35"/>
+      <c r="J87" s="35"/>
+      <c r="K87" s="35"/>
+      <c r="L87" s="35"/>
+      <c r="M87" s="35"/>
+      <c r="N87" s="35"/>
+      <c r="O87" s="35"/>
+      <c r="P87" s="35"/>
+      <c r="Q87" s="35"/>
+      <c r="R87" s="35"/>
+      <c r="S87" s="35"/>
+      <c r="T87" s="35"/>
+      <c r="U87" s="35"/>
+      <c r="V87" s="35"/>
+      <c r="W87" s="35"/>
+      <c r="X87" s="35"/>
+      <c r="Y87" s="35"/>
+      <c r="Z87" s="35"/>
+      <c r="AA87" s="35"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="30" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B88" s="44"/>
-      <c r="C88" s="44"/>
-      <c r="D88" s="33"/>
-      <c r="E88" s="33" t="str">
+      <c r="B88" s="43"/>
+      <c r="C88" s="43"/>
+      <c r="D88" s="36"/>
+      <c r="E88" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F88" s="41" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F88" s="42" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G88" s="43"/>
-      <c r="H88" s="36"/>
-      <c r="I88" s="36"/>
-      <c r="J88" s="36"/>
-      <c r="K88" s="36"/>
-      <c r="L88" s="36"/>
-      <c r="M88" s="36"/>
-      <c r="N88" s="36"/>
-      <c r="O88" s="36"/>
-      <c r="P88" s="36"/>
-      <c r="Q88" s="36"/>
-      <c r="R88" s="36"/>
-      <c r="S88" s="36"/>
-      <c r="T88" s="36"/>
-      <c r="U88" s="36"/>
-      <c r="V88" s="36"/>
-      <c r="W88" s="36"/>
-      <c r="X88" s="36"/>
-      <c r="Y88" s="36"/>
-      <c r="Z88" s="36"/>
-      <c r="AA88" s="36"/>
+      <c r="G88" s="42"/>
+      <c r="H88" s="35"/>
+      <c r="I88" s="35"/>
+      <c r="J88" s="35"/>
+      <c r="K88" s="35"/>
+      <c r="L88" s="35"/>
+      <c r="M88" s="35"/>
+      <c r="N88" s="35"/>
+      <c r="O88" s="35"/>
+      <c r="P88" s="35"/>
+      <c r="Q88" s="35"/>
+      <c r="R88" s="35"/>
+      <c r="S88" s="35"/>
+      <c r="T88" s="35"/>
+      <c r="U88" s="35"/>
+      <c r="V88" s="35"/>
+      <c r="W88" s="35"/>
+      <c r="X88" s="35"/>
+      <c r="Y88" s="35"/>
+      <c r="Z88" s="35"/>
+      <c r="AA88" s="35"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="30" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B89" s="44"/>
-      <c r="C89" s="44"/>
-      <c r="D89" s="33"/>
-      <c r="E89" s="33" t="str">
+      <c r="B89" s="43"/>
+      <c r="C89" s="43"/>
+      <c r="D89" s="36"/>
+      <c r="E89" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F89" s="41" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F89" s="42" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G89" s="43"/>
-      <c r="H89" s="36"/>
-      <c r="I89" s="36"/>
-      <c r="J89" s="36"/>
-      <c r="K89" s="36"/>
-      <c r="L89" s="36"/>
-      <c r="M89" s="36"/>
-      <c r="N89" s="36"/>
-      <c r="O89" s="36"/>
-      <c r="P89" s="36"/>
-      <c r="Q89" s="36"/>
-      <c r="R89" s="36"/>
-      <c r="S89" s="36"/>
-      <c r="T89" s="36"/>
-      <c r="U89" s="36"/>
-      <c r="V89" s="36"/>
-      <c r="W89" s="36"/>
-      <c r="X89" s="36"/>
-      <c r="Y89" s="36"/>
-      <c r="Z89" s="36"/>
-      <c r="AA89" s="36"/>
+      <c r="G89" s="42"/>
+      <c r="H89" s="35"/>
+      <c r="I89" s="35"/>
+      <c r="J89" s="35"/>
+      <c r="K89" s="35"/>
+      <c r="L89" s="35"/>
+      <c r="M89" s="35"/>
+      <c r="N89" s="35"/>
+      <c r="O89" s="35"/>
+      <c r="P89" s="35"/>
+      <c r="Q89" s="35"/>
+      <c r="R89" s="35"/>
+      <c r="S89" s="35"/>
+      <c r="T89" s="35"/>
+      <c r="U89" s="35"/>
+      <c r="V89" s="35"/>
+      <c r="W89" s="35"/>
+      <c r="X89" s="35"/>
+      <c r="Y89" s="35"/>
+      <c r="Z89" s="35"/>
+      <c r="AA89" s="35"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="30" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B90" s="44"/>
-      <c r="C90" s="44"/>
-      <c r="D90" s="33"/>
-      <c r="E90" s="33" t="str">
+      <c r="B90" s="43"/>
+      <c r="C90" s="43"/>
+      <c r="D90" s="36"/>
+      <c r="E90" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F90" s="41" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F90" s="42" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G90" s="43"/>
-      <c r="H90" s="36"/>
-      <c r="I90" s="36"/>
-      <c r="J90" s="36"/>
-      <c r="K90" s="36"/>
-      <c r="L90" s="36"/>
-      <c r="M90" s="36"/>
-      <c r="N90" s="36"/>
-      <c r="O90" s="36"/>
-      <c r="P90" s="36"/>
-      <c r="Q90" s="36"/>
-      <c r="R90" s="36"/>
-      <c r="S90" s="36"/>
-      <c r="T90" s="36"/>
-      <c r="U90" s="36"/>
-      <c r="V90" s="36"/>
-      <c r="W90" s="36"/>
-      <c r="X90" s="36"/>
-      <c r="Y90" s="36"/>
-      <c r="Z90" s="36"/>
-      <c r="AA90" s="36"/>
+      <c r="G90" s="42"/>
+      <c r="H90" s="35"/>
+      <c r="I90" s="35"/>
+      <c r="J90" s="35"/>
+      <c r="K90" s="35"/>
+      <c r="L90" s="35"/>
+      <c r="M90" s="35"/>
+      <c r="N90" s="35"/>
+      <c r="O90" s="35"/>
+      <c r="P90" s="35"/>
+      <c r="Q90" s="35"/>
+      <c r="R90" s="35"/>
+      <c r="S90" s="35"/>
+      <c r="T90" s="35"/>
+      <c r="U90" s="35"/>
+      <c r="V90" s="35"/>
+      <c r="W90" s="35"/>
+      <c r="X90" s="35"/>
+      <c r="Y90" s="35"/>
+      <c r="Z90" s="35"/>
+      <c r="AA90" s="35"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="30" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B91" s="44"/>
-      <c r="C91" s="44"/>
-      <c r="D91" s="33"/>
-      <c r="E91" s="33" t="str">
+      <c r="B91" s="43"/>
+      <c r="C91" s="43"/>
+      <c r="D91" s="36"/>
+      <c r="E91" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F91" s="41" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F91" s="42" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G91" s="43"/>
-      <c r="H91" s="36"/>
-      <c r="I91" s="36"/>
-      <c r="J91" s="36"/>
-      <c r="K91" s="36"/>
-      <c r="L91" s="36"/>
-      <c r="M91" s="36"/>
-      <c r="N91" s="36"/>
-      <c r="O91" s="36"/>
-      <c r="P91" s="36"/>
-      <c r="Q91" s="36"/>
-      <c r="R91" s="36"/>
-      <c r="S91" s="36"/>
-      <c r="T91" s="36"/>
-      <c r="U91" s="36"/>
-      <c r="V91" s="36"/>
-      <c r="W91" s="36"/>
-      <c r="X91" s="36"/>
-      <c r="Y91" s="36"/>
-      <c r="Z91" s="36"/>
-      <c r="AA91" s="36"/>
+      <c r="G91" s="42"/>
+      <c r="H91" s="35"/>
+      <c r="I91" s="35"/>
+      <c r="J91" s="35"/>
+      <c r="K91" s="35"/>
+      <c r="L91" s="35"/>
+      <c r="M91" s="35"/>
+      <c r="N91" s="35"/>
+      <c r="O91" s="35"/>
+      <c r="P91" s="35"/>
+      <c r="Q91" s="35"/>
+      <c r="R91" s="35"/>
+      <c r="S91" s="35"/>
+      <c r="T91" s="35"/>
+      <c r="U91" s="35"/>
+      <c r="V91" s="35"/>
+      <c r="W91" s="35"/>
+      <c r="X91" s="35"/>
+      <c r="Y91" s="35"/>
+      <c r="Z91" s="35"/>
+      <c r="AA91" s="35"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="30" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B92" s="44"/>
-      <c r="C92" s="44"/>
-      <c r="D92" s="33"/>
-      <c r="E92" s="33" t="str">
+      <c r="B92" s="43"/>
+      <c r="C92" s="43"/>
+      <c r="D92" s="36"/>
+      <c r="E92" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F92" s="41" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F92" s="42" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G92" s="43"/>
-      <c r="H92" s="36"/>
-      <c r="I92" s="36"/>
-      <c r="J92" s="36"/>
-      <c r="K92" s="36"/>
-      <c r="L92" s="36"/>
-      <c r="M92" s="36"/>
-      <c r="N92" s="36"/>
-      <c r="O92" s="36"/>
-      <c r="P92" s="36"/>
-      <c r="Q92" s="36"/>
-      <c r="R92" s="36"/>
-      <c r="S92" s="36"/>
-      <c r="T92" s="36"/>
-      <c r="U92" s="36"/>
-      <c r="V92" s="36"/>
-      <c r="W92" s="36"/>
-      <c r="X92" s="36"/>
-      <c r="Y92" s="36"/>
-      <c r="Z92" s="36"/>
-      <c r="AA92" s="36"/>
+      <c r="G92" s="42"/>
+      <c r="H92" s="35"/>
+      <c r="I92" s="35"/>
+      <c r="J92" s="35"/>
+      <c r="K92" s="35"/>
+      <c r="L92" s="35"/>
+      <c r="M92" s="35"/>
+      <c r="N92" s="35"/>
+      <c r="O92" s="35"/>
+      <c r="P92" s="35"/>
+      <c r="Q92" s="35"/>
+      <c r="R92" s="35"/>
+      <c r="S92" s="35"/>
+      <c r="T92" s="35"/>
+      <c r="U92" s="35"/>
+      <c r="V92" s="35"/>
+      <c r="W92" s="35"/>
+      <c r="X92" s="35"/>
+      <c r="Y92" s="35"/>
+      <c r="Z92" s="35"/>
+      <c r="AA92" s="35"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="30" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B93" s="44"/>
-      <c r="C93" s="44"/>
-      <c r="D93" s="33"/>
-      <c r="E93" s="33" t="str">
+      <c r="B93" s="43"/>
+      <c r="C93" s="43"/>
+      <c r="D93" s="36"/>
+      <c r="E93" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F93" s="41" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F93" s="42" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G93" s="43"/>
-      <c r="H93" s="36"/>
-      <c r="I93" s="36"/>
-      <c r="J93" s="36"/>
-      <c r="K93" s="36"/>
-      <c r="L93" s="36"/>
-      <c r="M93" s="36"/>
-      <c r="N93" s="36"/>
-      <c r="O93" s="36"/>
-      <c r="P93" s="36"/>
-      <c r="Q93" s="36"/>
-      <c r="R93" s="36"/>
-      <c r="S93" s="36"/>
-      <c r="T93" s="36"/>
-      <c r="U93" s="36"/>
-      <c r="V93" s="36"/>
-      <c r="W93" s="36"/>
-      <c r="X93" s="36"/>
-      <c r="Y93" s="36"/>
-      <c r="Z93" s="36"/>
-      <c r="AA93" s="36"/>
+      <c r="G93" s="42"/>
+      <c r="H93" s="35"/>
+      <c r="I93" s="35"/>
+      <c r="J93" s="35"/>
+      <c r="K93" s="35"/>
+      <c r="L93" s="35"/>
+      <c r="M93" s="35"/>
+      <c r="N93" s="35"/>
+      <c r="O93" s="35"/>
+      <c r="P93" s="35"/>
+      <c r="Q93" s="35"/>
+      <c r="R93" s="35"/>
+      <c r="S93" s="35"/>
+      <c r="T93" s="35"/>
+      <c r="U93" s="35"/>
+      <c r="V93" s="35"/>
+      <c r="W93" s="35"/>
+      <c r="X93" s="35"/>
+      <c r="Y93" s="35"/>
+      <c r="Z93" s="35"/>
+      <c r="AA93" s="35"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="30" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B94" s="44"/>
-      <c r="C94" s="44"/>
-      <c r="D94" s="33"/>
-      <c r="E94" s="33" t="str">
+      <c r="B94" s="43"/>
+      <c r="C94" s="43"/>
+      <c r="D94" s="36"/>
+      <c r="E94" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F94" s="41" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F94" s="42" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G94" s="43"/>
-      <c r="H94" s="36"/>
-      <c r="I94" s="36"/>
-      <c r="J94" s="36"/>
-      <c r="K94" s="36"/>
-      <c r="L94" s="36"/>
-      <c r="M94" s="36"/>
-      <c r="N94" s="36"/>
-      <c r="O94" s="36"/>
-      <c r="P94" s="36"/>
-      <c r="Q94" s="36"/>
-      <c r="R94" s="36"/>
-      <c r="S94" s="36"/>
-      <c r="T94" s="36"/>
-      <c r="U94" s="36"/>
-      <c r="V94" s="36"/>
-      <c r="W94" s="36"/>
-      <c r="X94" s="36"/>
-      <c r="Y94" s="36"/>
-      <c r="Z94" s="36"/>
-      <c r="AA94" s="36"/>
+      <c r="G94" s="42"/>
+      <c r="H94" s="35"/>
+      <c r="I94" s="35"/>
+      <c r="J94" s="35"/>
+      <c r="K94" s="35"/>
+      <c r="L94" s="35"/>
+      <c r="M94" s="35"/>
+      <c r="N94" s="35"/>
+      <c r="O94" s="35"/>
+      <c r="P94" s="35"/>
+      <c r="Q94" s="35"/>
+      <c r="R94" s="35"/>
+      <c r="S94" s="35"/>
+      <c r="T94" s="35"/>
+      <c r="U94" s="35"/>
+      <c r="V94" s="35"/>
+      <c r="W94" s="35"/>
+      <c r="X94" s="35"/>
+      <c r="Y94" s="35"/>
+      <c r="Z94" s="35"/>
+      <c r="AA94" s="35"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="30" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B95" s="44"/>
-      <c r="C95" s="44"/>
-      <c r="D95" s="33"/>
-      <c r="E95" s="33" t="str">
+      <c r="B95" s="43"/>
+      <c r="C95" s="43"/>
+      <c r="D95" s="36"/>
+      <c r="E95" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F95" s="41" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F95" s="42" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G95" s="43"/>
-      <c r="H95" s="36"/>
-      <c r="I95" s="36"/>
-      <c r="J95" s="36"/>
-      <c r="K95" s="36"/>
-      <c r="L95" s="36"/>
-      <c r="M95" s="36"/>
-      <c r="N95" s="36"/>
-      <c r="O95" s="36"/>
-      <c r="P95" s="36"/>
-      <c r="Q95" s="36"/>
-      <c r="R95" s="36"/>
-      <c r="S95" s="36"/>
-      <c r="T95" s="36"/>
-      <c r="U95" s="36"/>
-      <c r="V95" s="36"/>
-      <c r="W95" s="36"/>
-      <c r="X95" s="36"/>
-      <c r="Y95" s="36"/>
-      <c r="Z95" s="36"/>
-      <c r="AA95" s="36"/>
+      <c r="G95" s="42"/>
+      <c r="H95" s="35"/>
+      <c r="I95" s="35"/>
+      <c r="J95" s="35"/>
+      <c r="K95" s="35"/>
+      <c r="L95" s="35"/>
+      <c r="M95" s="35"/>
+      <c r="N95" s="35"/>
+      <c r="O95" s="35"/>
+      <c r="P95" s="35"/>
+      <c r="Q95" s="35"/>
+      <c r="R95" s="35"/>
+      <c r="S95" s="35"/>
+      <c r="T95" s="35"/>
+      <c r="U95" s="35"/>
+      <c r="V95" s="35"/>
+      <c r="W95" s="35"/>
+      <c r="X95" s="35"/>
+      <c r="Y95" s="35"/>
+      <c r="Z95" s="35"/>
+      <c r="AA95" s="35"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="30" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B96" s="44"/>
-      <c r="C96" s="44"/>
-      <c r="D96" s="33"/>
-      <c r="E96" s="33" t="str">
+      <c r="B96" s="43"/>
+      <c r="C96" s="43"/>
+      <c r="D96" s="36"/>
+      <c r="E96" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F96" s="41" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F96" s="42" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G96" s="43"/>
-      <c r="H96" s="36"/>
-      <c r="I96" s="36"/>
-      <c r="J96" s="36"/>
-      <c r="K96" s="36"/>
-      <c r="L96" s="36"/>
-      <c r="M96" s="36"/>
-      <c r="N96" s="36"/>
-      <c r="O96" s="36"/>
-      <c r="P96" s="36"/>
-      <c r="Q96" s="36"/>
-      <c r="R96" s="36"/>
-      <c r="S96" s="36"/>
-      <c r="T96" s="36"/>
-      <c r="U96" s="36"/>
-      <c r="V96" s="36"/>
-      <c r="W96" s="36"/>
-      <c r="X96" s="36"/>
-      <c r="Y96" s="36"/>
-      <c r="Z96" s="36"/>
-      <c r="AA96" s="36"/>
+      <c r="G96" s="42"/>
+      <c r="H96" s="35"/>
+      <c r="I96" s="35"/>
+      <c r="J96" s="35"/>
+      <c r="K96" s="35"/>
+      <c r="L96" s="35"/>
+      <c r="M96" s="35"/>
+      <c r="N96" s="35"/>
+      <c r="O96" s="35"/>
+      <c r="P96" s="35"/>
+      <c r="Q96" s="35"/>
+      <c r="R96" s="35"/>
+      <c r="S96" s="35"/>
+      <c r="T96" s="35"/>
+      <c r="U96" s="35"/>
+      <c r="V96" s="35"/>
+      <c r="W96" s="35"/>
+      <c r="X96" s="35"/>
+      <c r="Y96" s="35"/>
+      <c r="Z96" s="35"/>
+      <c r="AA96" s="35"/>
     </row>
     <row r="97" ht="15.75" customHeight="1"/>
     <row r="98" ht="15.75" customHeight="1"/>

--- a/attendance-files/HRM/HRM (B) Attendance Sheet.xlsx
+++ b/attendance-files/HRM/HRM (B) Attendance Sheet.xlsx
@@ -1225,9 +1225,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
-      <c r="F1" s="5">
-        <v>5.0</v>
-      </c>
+      <c r="F1" s="5"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
@@ -1608,7 +1606,7 @@
         <v>2.0</v>
       </c>
       <c r="F7" s="27">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="G7" s="28"/>
       <c r="H7" s="29"/>
@@ -1650,7 +1648,7 @@
         <v>1.0</v>
       </c>
       <c r="F8" s="33">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="G8" s="34"/>
       <c r="H8" s="35"/>
@@ -1689,11 +1687,11 @@
         <v>9</v>
       </c>
       <c r="E9" s="36">
-        <f t="shared" ref="E9:E10" si="2">IF(D9&gt;0,COUNTIF(G9:Z9,"A"),"")</f>
+        <f>IF(D9&gt;0,COUNTIF(G9:Z9,"A"),"")</f>
         <v>0</v>
       </c>
       <c r="F9" s="33">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="G9" s="34"/>
       <c r="H9" s="35"/>
@@ -1731,9 +1729,8 @@
       <c r="D10" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="36">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="E10" s="26">
+        <v>2.0</v>
       </c>
       <c r="F10" s="33">
         <v>8.0</v>
@@ -1775,10 +1772,10 @@
         <v>9</v>
       </c>
       <c r="E11" s="26">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F11" s="33">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G11" s="34"/>
       <c r="H11" s="35"/>
@@ -1817,10 +1814,10 @@
         <v>9</v>
       </c>
       <c r="E12" s="26">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F12" s="33">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G12" s="34"/>
       <c r="H12" s="35"/>
@@ -1859,10 +1856,10 @@
         <v>9</v>
       </c>
       <c r="E13" s="26">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F13" s="33">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G13" s="34"/>
       <c r="H13" s="35"/>
@@ -1905,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="33">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="G14" s="34"/>
       <c r="H14" s="35"/>
@@ -1944,10 +1941,10 @@
         <v>9</v>
       </c>
       <c r="E15" s="26">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F15" s="33">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G15" s="34"/>
       <c r="H15" s="35"/>
@@ -1985,12 +1982,11 @@
       <c r="D16" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="36">
-        <f>IF(D16&gt;0,COUNTIF(G16:Z16,"A"),"")</f>
-        <v>0</v>
+      <c r="E16" s="26">
+        <v>1.0</v>
       </c>
       <c r="F16" s="33">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="G16" s="34"/>
       <c r="H16" s="35"/>
@@ -2029,7 +2025,7 @@
         <v>9</v>
       </c>
       <c r="E17" s="26">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="F17" s="33">
         <v>4.0</v>
@@ -2071,10 +2067,10 @@
         <v>9</v>
       </c>
       <c r="E18" s="26">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F18" s="33">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G18" s="34"/>
       <c r="H18" s="35"/>
@@ -2116,7 +2112,7 @@
         <v>2.0</v>
       </c>
       <c r="F19" s="33">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="G19" s="34"/>
       <c r="H19" s="35"/>
@@ -2158,7 +2154,7 @@
         <v>2.0</v>
       </c>
       <c r="F20" s="33">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="G20" s="34"/>
       <c r="H20" s="35"/>
@@ -2200,7 +2196,7 @@
         <v>4.0</v>
       </c>
       <c r="F21" s="33">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="G21" s="34"/>
       <c r="H21" s="35"/>
@@ -2239,10 +2235,10 @@
         <v>9</v>
       </c>
       <c r="E22" s="26">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F22" s="33">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G22" s="34"/>
       <c r="H22" s="35"/>
@@ -2284,7 +2280,7 @@
         <v>2.0</v>
       </c>
       <c r="F23" s="33">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="G23" s="34"/>
       <c r="H23" s="35"/>
@@ -2323,10 +2319,10 @@
         <v>9</v>
       </c>
       <c r="E24" s="26">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F24" s="33">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G24" s="34"/>
       <c r="H24" s="35"/>
@@ -2365,10 +2361,10 @@
         <v>9</v>
       </c>
       <c r="E25" s="26">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F25" s="33">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G25" s="34"/>
       <c r="H25" s="35"/>
@@ -2410,7 +2406,7 @@
         <v>1.0</v>
       </c>
       <c r="F26" s="33">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="G26" s="34"/>
       <c r="H26" s="35"/>
@@ -2449,10 +2445,10 @@
         <v>9</v>
       </c>
       <c r="E27" s="26">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F27" s="33">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G27" s="34"/>
       <c r="H27" s="35"/>
@@ -2494,7 +2490,7 @@
         <v>3.0</v>
       </c>
       <c r="F28" s="33">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="G28" s="34"/>
       <c r="H28" s="35"/>
@@ -2532,9 +2528,8 @@
       <c r="D29" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="36">
-        <f>IF(D29&gt;0,COUNTIF(G29:Z29,"A"),"")</f>
-        <v>0</v>
+      <c r="E29" s="26">
+        <v>2.0</v>
       </c>
       <c r="F29" s="33">
         <v>8.0</v>
@@ -2579,7 +2574,7 @@
         <v>1.0</v>
       </c>
       <c r="F30" s="33">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="G30" s="34"/>
       <c r="H30" s="35"/>
@@ -2621,7 +2616,7 @@
         <v>3.0</v>
       </c>
       <c r="F31" s="33">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="G31" s="34"/>
       <c r="H31" s="35"/>
@@ -2660,10 +2655,10 @@
         <v>9</v>
       </c>
       <c r="E32" s="26">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F32" s="33">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G32" s="34"/>
       <c r="H32" s="35"/>
@@ -2702,10 +2697,10 @@
         <v>9</v>
       </c>
       <c r="E33" s="26">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F33" s="33">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G33" s="34"/>
       <c r="H33" s="35"/>
@@ -2744,10 +2739,10 @@
         <v>9</v>
       </c>
       <c r="E34" s="26">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F34" s="33">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G34" s="34"/>
       <c r="H34" s="35"/>
@@ -2789,7 +2784,7 @@
         <v>4.0</v>
       </c>
       <c r="F35" s="33">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="G35" s="34"/>
       <c r="H35" s="35"/>
@@ -2831,7 +2826,7 @@
         <v>2.0</v>
       </c>
       <c r="F36" s="33">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="G36" s="34"/>
       <c r="H36" s="35"/>
@@ -2873,7 +2868,7 @@
         <v>1.0</v>
       </c>
       <c r="F37" s="33">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="G37" s="34"/>
       <c r="H37" s="35"/>
@@ -2911,9 +2906,8 @@
       <c r="D38" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="36">
-        <f>IF(D38&gt;0,COUNTIF(G38:Z38,"A"),"")</f>
-        <v>0</v>
+      <c r="E38" s="26">
+        <v>2.0</v>
       </c>
       <c r="F38" s="33">
         <v>8.0</v>
@@ -2958,7 +2952,7 @@
         <v>3.0</v>
       </c>
       <c r="F39" s="33">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="G39" s="34"/>
       <c r="H39" s="35"/>
@@ -2996,12 +2990,11 @@
       <c r="D40" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E40" s="36">
-        <f>IF(D40&gt;0,COUNTIF(G40:Z40,"A"),"")</f>
-        <v>0</v>
+      <c r="E40" s="26">
+        <v>1.0</v>
       </c>
       <c r="F40" s="33">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="G40" s="34"/>
       <c r="H40" s="35"/>
@@ -3043,7 +3036,7 @@
         <v>2.0</v>
       </c>
       <c r="F41" s="33">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="G41" s="34"/>
       <c r="H41" s="35"/>
@@ -3084,7 +3077,7 @@
         <v>2.0</v>
       </c>
       <c r="F42" s="33">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="G42" s="34"/>
       <c r="H42" s="35"/>
@@ -3122,7 +3115,7 @@
         <v>9</v>
       </c>
       <c r="E43" s="26">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="F43" s="33">
         <v>8.0</v>
@@ -3151,7 +3144,7 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="30">
-        <f t="shared" ref="A44:A96" si="3">IF(B44&gt;0,A43+1,"")</f>
+        <f t="shared" ref="A44:A96" si="2">IF(B44&gt;0,A43+1,"")</f>
         <v>38</v>
       </c>
       <c r="B44" s="31" t="s">
@@ -3164,10 +3157,10 @@
         <v>9</v>
       </c>
       <c r="E44" s="26">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F44" s="33">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G44" s="34"/>
       <c r="H44" s="35"/>
@@ -3193,7 +3186,7 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="B45" s="31" t="s">
@@ -3206,10 +3199,10 @@
         <v>9</v>
       </c>
       <c r="E45" s="26">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F45" s="33">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G45" s="34"/>
       <c r="H45" s="35"/>
@@ -3235,7 +3228,7 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="B46" s="31" t="s">
@@ -3251,7 +3244,7 @@
         <v>2.0</v>
       </c>
       <c r="F46" s="33">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="G46" s="34"/>
       <c r="H46" s="35"/>
@@ -3277,7 +3270,7 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="B47" s="31" t="s">
@@ -3289,12 +3282,11 @@
       <c r="D47" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E47" s="36">
-        <f>IF(D47&gt;0,COUNTIF(G47:Z47,"A"),"")</f>
-        <v>0</v>
+      <c r="E47" s="26">
+        <v>1.0</v>
       </c>
       <c r="F47" s="33">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="G47" s="34"/>
       <c r="H47" s="35"/>
@@ -3320,7 +3312,7 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="B48" s="31" t="s">
@@ -3333,10 +3325,10 @@
         <v>9</v>
       </c>
       <c r="E48" s="26">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F48" s="33">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G48" s="34"/>
       <c r="H48" s="35"/>
@@ -3362,7 +3354,7 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="B49" s="31" t="s">
@@ -3375,10 +3367,10 @@
         <v>9</v>
       </c>
       <c r="E49" s="26">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F49" s="33">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G49" s="34"/>
       <c r="H49" s="35"/>
@@ -3404,7 +3396,7 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="B50" s="31" t="s">
@@ -3420,7 +3412,7 @@
         <v>1.0</v>
       </c>
       <c r="F50" s="33">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="G50" s="34"/>
       <c r="H50" s="35"/>
@@ -3446,7 +3438,7 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="B51" s="31" t="s">
@@ -3459,10 +3451,10 @@
         <v>9</v>
       </c>
       <c r="E51" s="26">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F51" s="33">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G51" s="34"/>
       <c r="H51" s="35"/>
@@ -3488,7 +3480,7 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="B52" s="31" t="s">
@@ -3505,7 +3497,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="33">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="G52" s="34"/>
       <c r="H52" s="35"/>
@@ -3531,7 +3523,7 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="B53" s="31" t="s">
@@ -3547,7 +3539,7 @@
         <v>2.0</v>
       </c>
       <c r="F53" s="33">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="G53" s="34"/>
       <c r="H53" s="35"/>
@@ -3573,7 +3565,7 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="B54" s="31" t="s">
@@ -3589,7 +3581,7 @@
         <v>2.0</v>
       </c>
       <c r="F54" s="33">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="G54" s="34"/>
       <c r="H54" s="35"/>
@@ -3615,7 +3607,7 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
       <c r="B55" s="31" t="s">
@@ -3631,7 +3623,7 @@
         <v>2.0</v>
       </c>
       <c r="F55" s="33">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="G55" s="34"/>
       <c r="H55" s="35"/>
@@ -3657,7 +3649,7 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="B56" s="31" t="s">
@@ -3673,7 +3665,7 @@
         <v>2.0</v>
       </c>
       <c r="F56" s="33">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="G56" s="34"/>
       <c r="H56" s="35"/>
@@ -3699,7 +3691,7 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="B57" s="31" t="s">
@@ -3715,7 +3707,7 @@
         <v>2.0</v>
       </c>
       <c r="F57" s="33">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="G57" s="34"/>
       <c r="H57" s="35"/>
@@ -3741,7 +3733,7 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="B58" s="31" t="s">
@@ -3754,10 +3746,10 @@
         <v>9</v>
       </c>
       <c r="E58" s="26">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F58" s="33">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G58" s="34"/>
       <c r="H58" s="35"/>
@@ -3783,7 +3775,7 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="B59" s="31" t="s">
@@ -3800,7 +3792,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="33">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="G59" s="34"/>
       <c r="H59" s="35"/>
@@ -3826,7 +3818,7 @@
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>54</v>
       </c>
       <c r="B60" s="31" t="s">
@@ -3839,10 +3831,10 @@
         <v>9</v>
       </c>
       <c r="E60" s="26">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F60" s="33">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G60" s="34"/>
       <c r="H60" s="35"/>
@@ -3868,7 +3860,7 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>55</v>
       </c>
       <c r="B61" s="31" t="s">
@@ -3884,7 +3876,7 @@
         <v>1.0</v>
       </c>
       <c r="F61" s="33">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="G61" s="34"/>
       <c r="H61" s="35"/>
@@ -3910,7 +3902,7 @@
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>56</v>
       </c>
       <c r="B62" s="31" t="s">
@@ -3922,12 +3914,11 @@
       <c r="D62" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E62" s="36">
-        <f>IF(D62&gt;0,COUNTIF(G62:Z62,"A"),"")</f>
-        <v>0</v>
+      <c r="E62" s="26">
+        <v>1.0</v>
       </c>
       <c r="F62" s="33">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="G62" s="34"/>
       <c r="H62" s="35"/>
@@ -3953,7 +3944,7 @@
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>57</v>
       </c>
       <c r="B63" s="31" t="s">
@@ -3966,10 +3957,10 @@
         <v>9</v>
       </c>
       <c r="E63" s="26">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F63" s="33">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G63" s="34"/>
       <c r="H63" s="35"/>
@@ -3995,7 +3986,7 @@
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>58</v>
       </c>
       <c r="B64" s="31" t="s">
@@ -4008,10 +3999,10 @@
         <v>9</v>
       </c>
       <c r="E64" s="26">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F64" s="33">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G64" s="34"/>
       <c r="H64" s="35"/>
@@ -4037,7 +4028,7 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="B65" s="31" t="s">
@@ -4049,9 +4040,8 @@
       <c r="D65" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E65" s="36">
-        <f>IF(D65&gt;0,COUNTIF(G65:Z65,"A"),"")</f>
-        <v>0</v>
+      <c r="E65" s="26">
+        <v>2.0</v>
       </c>
       <c r="F65" s="33">
         <v>8.0</v>
@@ -4080,7 +4070,7 @@
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="B66" s="31" t="s">
@@ -4096,7 +4086,7 @@
         <v>2.0</v>
       </c>
       <c r="F66" s="33">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="G66" s="34"/>
       <c r="H66" s="35"/>
@@ -4122,7 +4112,7 @@
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>61</v>
       </c>
       <c r="B67" s="31" t="s">
@@ -4135,10 +4125,10 @@
         <v>9</v>
       </c>
       <c r="E67" s="26">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F67" s="33">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G67" s="34"/>
       <c r="H67" s="35"/>
@@ -4164,7 +4154,7 @@
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>62</v>
       </c>
       <c r="B68" s="31" t="s">
@@ -4180,7 +4170,7 @@
         <v>1.0</v>
       </c>
       <c r="F68" s="33">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="G68" s="34"/>
       <c r="H68" s="35"/>
@@ -4206,7 +4196,7 @@
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>63</v>
       </c>
       <c r="B69" s="31" t="s">
@@ -4223,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="F69" s="33">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="G69" s="34"/>
       <c r="H69" s="35"/>
@@ -4249,7 +4239,7 @@
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="B70" s="31" t="s">
@@ -4265,7 +4255,7 @@
         <v>2.0</v>
       </c>
       <c r="F70" s="33">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="G70" s="34"/>
       <c r="H70" s="35"/>
@@ -4291,7 +4281,7 @@
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>65</v>
       </c>
       <c r="B71" s="31" t="s">
@@ -4303,12 +4293,11 @@
       <c r="D71" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E71" s="36">
-        <f>IF(D71&gt;0,COUNTIF(G71:Z71,"A"),"")</f>
-        <v>0</v>
+      <c r="E71" s="26">
+        <v>1.0</v>
       </c>
       <c r="F71" s="33">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="G71" s="34"/>
       <c r="H71" s="35"/>
@@ -4334,7 +4323,7 @@
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>66</v>
       </c>
       <c r="B72" s="31" t="s">
@@ -4350,7 +4339,7 @@
         <v>2.0</v>
       </c>
       <c r="F72" s="33">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="G72" s="34"/>
       <c r="H72" s="35"/>
@@ -4376,7 +4365,7 @@
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>67</v>
       </c>
       <c r="B73" s="31" t="s">
@@ -4392,7 +4381,7 @@
         <v>1.0</v>
       </c>
       <c r="F73" s="33">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="G73" s="34"/>
       <c r="H73" s="35"/>
@@ -4418,7 +4407,7 @@
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>68</v>
       </c>
       <c r="B74" s="31" t="s">
@@ -4434,7 +4423,7 @@
         <v>2.0</v>
       </c>
       <c r="F74" s="33">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="G74" s="34"/>
       <c r="H74" s="35"/>
@@ -4460,7 +4449,7 @@
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
       <c r="B75" s="31" t="s">
@@ -4476,7 +4465,7 @@
         <v>2.0</v>
       </c>
       <c r="F75" s="33">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="G75" s="34"/>
       <c r="H75" s="35"/>
@@ -4502,7 +4491,7 @@
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="B76" s="31" t="s">
@@ -4514,9 +4503,8 @@
       <c r="D76" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E76" s="36">
-        <f>IF(D76&gt;0,COUNTIF(G76:Z76,"A"),"")</f>
-        <v>0</v>
+      <c r="E76" s="26">
+        <v>2.0</v>
       </c>
       <c r="F76" s="33">
         <v>8.0</v>
@@ -4545,7 +4533,7 @@
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
       <c r="B77" s="31" t="s">
@@ -4561,7 +4549,7 @@
         <v>2.0</v>
       </c>
       <c r="F77" s="33">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="G77" s="34"/>
       <c r="H77" s="35"/>
@@ -4587,7 +4575,7 @@
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="B78" s="31" t="s">
@@ -4600,10 +4588,10 @@
         <v>9</v>
       </c>
       <c r="E78" s="26">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F78" s="33">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G78" s="34"/>
       <c r="H78" s="35"/>
@@ -4629,7 +4617,7 @@
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>73</v>
       </c>
       <c r="B79" s="31" t="s">
@@ -4642,10 +4630,10 @@
         <v>9</v>
       </c>
       <c r="E79" s="26">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F79" s="33">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G79" s="34"/>
       <c r="H79" s="35"/>
@@ -4671,7 +4659,7 @@
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>74</v>
       </c>
       <c r="B80" s="31" t="s">
@@ -4687,7 +4675,7 @@
         <v>3.0</v>
       </c>
       <c r="F80" s="33">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="G80" s="34"/>
       <c r="H80" s="35"/>
@@ -4713,18 +4701,18 @@
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B81" s="31"/>
       <c r="C81" s="32"/>
       <c r="D81" s="36"/>
       <c r="E81" s="36" t="str">
-        <f t="shared" ref="E81:E96" si="4">IF(D81&gt;0,COUNTIF(G81:Z81,"A"),"")</f>
+        <f t="shared" ref="E81:E96" si="3">IF(D81&gt;0,COUNTIF(G81:Z81,"A"),"")</f>
         <v/>
       </c>
       <c r="F81" s="41" t="str">
-        <f t="shared" ref="F81:F96" si="5">IF(D81&gt;0,COUNTIF(G81:Z81,"P"),"")</f>
+        <f t="shared" ref="F81:F96" si="4">IF(D81&gt;0,COUNTIF(G81:Z81,"P"),"")</f>
         <v/>
       </c>
       <c r="G81" s="42"/>
@@ -4751,18 +4739,18 @@
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B82" s="31"/>
       <c r="C82" s="32"/>
       <c r="D82" s="36"/>
       <c r="E82" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F82" s="41" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F82" s="41" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G82" s="42"/>
@@ -4789,18 +4777,18 @@
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B83" s="31"/>
       <c r="C83" s="32"/>
       <c r="D83" s="36"/>
       <c r="E83" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F83" s="41" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F83" s="41" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G83" s="42"/>
@@ -4827,18 +4815,18 @@
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B84" s="31"/>
       <c r="C84" s="32"/>
       <c r="D84" s="36"/>
       <c r="E84" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F84" s="41" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F84" s="41" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G84" s="42"/>
@@ -4865,18 +4853,18 @@
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B85" s="31"/>
       <c r="C85" s="32"/>
       <c r="D85" s="36"/>
       <c r="E85" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F85" s="41" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F85" s="41" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G85" s="42"/>
@@ -4903,18 +4891,18 @@
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B86" s="43"/>
       <c r="C86" s="43"/>
       <c r="D86" s="36"/>
       <c r="E86" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F86" s="41" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F86" s="41" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G86" s="42"/>
@@ -4941,18 +4929,18 @@
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B87" s="43"/>
       <c r="C87" s="43"/>
       <c r="D87" s="36"/>
       <c r="E87" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F87" s="41" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F87" s="41" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G87" s="42"/>
@@ -4979,18 +4967,18 @@
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B88" s="43"/>
       <c r="C88" s="43"/>
       <c r="D88" s="36"/>
       <c r="E88" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F88" s="41" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F88" s="41" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G88" s="42"/>
@@ -5017,18 +5005,18 @@
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B89" s="43"/>
       <c r="C89" s="43"/>
       <c r="D89" s="36"/>
       <c r="E89" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F89" s="41" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F89" s="41" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G89" s="42"/>
@@ -5055,18 +5043,18 @@
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B90" s="43"/>
       <c r="C90" s="43"/>
       <c r="D90" s="36"/>
       <c r="E90" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F90" s="41" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F90" s="41" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G90" s="42"/>
@@ -5093,18 +5081,18 @@
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B91" s="43"/>
       <c r="C91" s="43"/>
       <c r="D91" s="36"/>
       <c r="E91" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F91" s="41" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F91" s="41" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G91" s="42"/>
@@ -5131,18 +5119,18 @@
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B92" s="43"/>
       <c r="C92" s="43"/>
       <c r="D92" s="36"/>
       <c r="E92" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F92" s="41" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F92" s="41" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G92" s="42"/>
@@ -5169,18 +5157,18 @@
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B93" s="43"/>
       <c r="C93" s="43"/>
       <c r="D93" s="36"/>
       <c r="E93" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F93" s="41" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F93" s="41" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G93" s="42"/>
@@ -5207,18 +5195,18 @@
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B94" s="43"/>
       <c r="C94" s="43"/>
       <c r="D94" s="36"/>
       <c r="E94" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F94" s="41" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F94" s="41" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G94" s="42"/>
@@ -5245,18 +5233,18 @@
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B95" s="43"/>
       <c r="C95" s="43"/>
       <c r="D95" s="36"/>
       <c r="E95" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F95" s="41" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F95" s="41" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G95" s="42"/>
@@ -5283,18 +5271,18 @@
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B96" s="43"/>
       <c r="C96" s="43"/>
       <c r="D96" s="36"/>
       <c r="E96" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F96" s="41" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F96" s="41" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G96" s="42"/>
